--- a/plot/Eggomania/Level0/Plot.xlsx
+++ b/plot/Eggomania/Level0/Plot.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MasterProj\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Essex\Master Project\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -106,6 +106,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Eggomania Level 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -126,12 +152,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -145,7 +171,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1663,7 +1689,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-197B-4BD1-8B14-8595A235EC4B}"/>
             </c:ext>
@@ -1678,16 +1704,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312303064"/>
-        <c:axId val="312300112"/>
+        <c:axId val="279884200"/>
+        <c:axId val="279883416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312303064"/>
+        <c:axId val="279884200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Turn</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> played</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1716,23 +1803,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312300112"/>
+        <c:crossAx val="279883416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312300112"/>
+        <c:axId val="279883416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,6 +1840,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avearge</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>core</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1775,15 +1927,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312303064"/>
+        <c:crossAx val="279884200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,9 +1971,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1833,7 +1988,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1847,6 +2002,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Eggomania Level 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1867,12 +2048,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3404,7 +3585,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE46-4E47-ACB7-78DB8D35DE3F}"/>
             </c:ext>
@@ -3419,16 +3600,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="406296328"/>
-        <c:axId val="406298952"/>
+        <c:axId val="279880280"/>
+        <c:axId val="279878320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406296328"/>
+        <c:axId val="279880280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Turn</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> played</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3457,23 +3699,24 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406298952"/>
+        <c:crossAx val="279878320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406298952"/>
+        <c:axId val="279878320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,6 +3736,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> score accumumative</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3516,15 +3820,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406296328"/>
+        <c:crossAx val="279880280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3560,9 +3864,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4690,15 +4997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5049,13 +5356,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5095,7 +5402,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5121,7 +5428,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5147,7 +5454,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5173,7 +5480,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5199,7 +5506,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5225,7 +5532,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5251,7 +5558,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5277,7 +5584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5303,7 +5610,7 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5329,7 +5636,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5355,7 +5662,7 @@
         <v>0.43181818181818182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5381,7 +5688,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5407,7 +5714,7 @@
         <v>0.36538461538461536</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5433,7 +5740,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5459,7 +5766,7 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5485,7 +5792,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5511,7 +5818,7 @@
         <v>0.27941176470588236</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5537,7 +5844,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5563,7 +5870,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5589,7 +5896,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5615,7 +5922,7 @@
         <v>0.26190476190476192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5641,7 +5948,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5667,7 +5974,7 @@
         <v>0.2391304347826087</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5693,7 +6000,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5719,7 +6026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5745,7 +6052,7 @@
         <v>0.24038461538461539</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5771,7 +6078,7 @@
         <v>0.23148148148148148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5797,7 +6104,7 @@
         <v>0.22321428571428573</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5823,7 +6130,7 @@
         <v>0.21551724137931033</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5849,7 +6156,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5875,7 +6182,7 @@
         <v>0.20161290322580644</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5901,7 +6208,7 @@
         <v>0.2109375</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5927,7 +6234,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5953,7 +6260,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5979,7 +6286,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6005,7 +6312,7 @@
         <v>0.2013888888888889</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6031,7 +6338,7 @@
         <v>0.19594594594594594</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6057,7 +6364,7 @@
         <v>0.19736842105263158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6083,7 +6390,7 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6109,7 +6416,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6135,7 +6442,7 @@
         <v>0.20121951219512196</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6161,7 +6468,7 @@
         <v>0.19642857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6187,7 +6494,7 @@
         <v>0.20348837209302326</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6213,7 +6520,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6239,7 +6546,7 @@
         <v>0.21111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>0</v>
       </c>
@@ -6265,7 +6572,7 @@
         <v>0.21195652173913043</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6291,7 +6598,7 @@
         <v>0.21276595744680851</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6317,7 +6624,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6343,7 +6650,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6369,7 +6676,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>0</v>
       </c>
@@ -6395,7 +6702,7 @@
         <v>0.2107843137254902</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6421,7 +6728,7 @@
         <v>0.21634615384615385</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6447,7 +6754,7 @@
         <v>0.21698113207547171</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6473,7 +6780,7 @@
         <v>0.21759259259259259</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6499,7 +6806,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6525,7 +6832,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6551,7 +6858,7 @@
         <v>0.22368421052631579</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6577,7 +6884,7 @@
         <v>0.22844827586206898</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6603,7 +6910,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6629,7 +6936,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6655,7 +6962,7 @@
         <v>0.22950819672131148</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6681,7 +6988,7 @@
         <v>0.22983870967741934</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6707,7 +7014,7 @@
         <v>0.23015873015873015</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6733,7 +7040,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>1</v>
       </c>
@@ -6759,7 +7066,7 @@
         <v>0.24230769230769231</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6785,7 +7092,7 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>1</v>
       </c>
@@ -6811,7 +7118,7 @@
         <v>0.2462686567164179</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>0</v>
       </c>
@@ -6837,7 +7144,7 @@
         <v>0.24632352941176472</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6863,7 +7170,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>1</v>
       </c>
@@ -6889,7 +7196,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>0</v>
       </c>
@@ -6915,7 +7222,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>0</v>
       </c>
@@ -6941,7 +7248,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>1</v>
       </c>
@@ -6967,7 +7274,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6993,7 +7300,7 @@
         <v>0.2533783783783784</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>1</v>
       </c>
@@ -7019,7 +7326,7 @@
         <v>0.25666666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>0</v>
       </c>
@@ -7045,7 +7352,7 @@
         <v>0.25986842105263158</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>1</v>
       </c>
@@ -7071,7 +7378,7 @@
         <v>0.26298701298701299</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>1</v>
       </c>
@@ -7097,7 +7404,7 @@
         <v>0.26602564102564102</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7123,7 +7430,7 @@
         <v>0.26898734177215189</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>1</v>
       </c>
@@ -7149,7 +7456,7 @@
         <v>0.27187499999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7175,7 +7482,7 @@
         <v>0.27469135802469136</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7201,7 +7508,7 @@
         <v>0.27743902439024393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>1</v>
       </c>
@@ -7227,7 +7534,7 @@
         <v>0.28012048192771083</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>1</v>
       </c>
@@ -7253,7 +7560,7 @@
         <v>0.28273809523809523</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7279,7 +7586,7 @@
         <v>0.28235294117647058</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>1</v>
       </c>
@@ -7305,7 +7612,7 @@
         <v>0.28779069767441862</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7331,7 +7638,7 @@
         <v>0.29022988505747127</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>1</v>
       </c>
@@ -7357,7 +7664,7 @@
         <v>0.29261363636363635</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>0</v>
       </c>
@@ -7383,7 +7690,7 @@
         <v>0.29213483146067415</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>0</v>
       </c>
@@ -7409,7 +7716,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7435,7 +7742,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>1</v>
       </c>
@@ -7461,7 +7768,7 @@
         <v>0.29891304347826086</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>1</v>
       </c>
@@ -7487,7 +7794,7 @@
         <v>0.30376344086021506</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7513,7 +7820,7 @@
         <v>0.30585106382978722</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>0</v>
       </c>
@@ -7539,7 +7846,7 @@
         <v>0.30526315789473685</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>0</v>
       </c>
@@ -7565,7 +7872,7 @@
         <v>0.3046875</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7591,7 +7898,7 @@
         <v>0.30670103092783507</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>1</v>
       </c>
@@ -7617,7 +7924,7 @@
         <v>0.30867346938775508</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>1</v>
       </c>
@@ -7643,7 +7950,7 @@
         <v>0.30808080808080807</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7669,7 +7976,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7695,7 +8002,7 @@
         <v>0.31188118811881188</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>1</v>
       </c>
@@ -7721,7 +8028,7 @@
         <v>0.31372549019607843</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>1</v>
       </c>
@@ -7747,7 +8054,7 @@
         <v>0.31796116504854371</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>0</v>
       </c>
@@ -7773,7 +8080,7 @@
         <v>0.31971153846153844</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>1</v>
       </c>
@@ -7799,7 +8106,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>1</v>
       </c>
@@ -7825,7 +8132,7 @@
         <v>0.32311320754716982</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>1</v>
       </c>
@@ -7851,7 +8158,7 @@
         <v>0.32476635514018692</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>0</v>
       </c>
@@ -7877,7 +8184,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>1</v>
       </c>
@@ -7903,7 +8210,7 @@
         <v>0.32798165137614677</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>1</v>
       </c>
@@ -7929,7 +8236,7 @@
         <v>0.32727272727272727</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>1</v>
       </c>
@@ -7955,7 +8262,7 @@
         <v>0.32882882882882886</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>1</v>
       </c>
@@ -7981,7 +8288,7 @@
         <v>0.33035714285714285</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>1</v>
       </c>
@@ -8007,7 +8314,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>1</v>
       </c>
@@ -8033,7 +8340,7 @@
         <v>0.33114035087719296</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>0</v>
       </c>
@@ -8059,7 +8366,7 @@
         <v>0.32826086956521738</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8085,7 +8392,7 @@
         <v>0.32974137931034481</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8111,7 +8418,7 @@
         <v>0.33119658119658119</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>0</v>
       </c>
@@ -8137,7 +8444,7 @@
         <v>0.33050847457627119</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>1</v>
       </c>
@@ -8163,7 +8470,7 @@
         <v>0.33193277310924368</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>0</v>
       </c>
@@ -8189,7 +8496,7 @@
         <v>0.33124999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>1</v>
       </c>
@@ -8215,7 +8522,7 @@
         <v>0.33264462809917356</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>0</v>
       </c>
@@ -8241,7 +8548,7 @@
         <v>0.33196721311475408</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>1</v>
       </c>
@@ -8267,7 +8574,7 @@
         <v>0.33536585365853661</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>0</v>
       </c>
@@ -8293,7 +8600,7 @@
         <v>0.33467741935483869</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>0</v>
       </c>
@@ -8319,7 +8626,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8345,7 +8652,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8371,7 +8678,7 @@
         <v>0.33267716535433073</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8397,7 +8704,7 @@
         <v>0.330078125</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8423,7 +8730,7 @@
         <v>0.32945736434108525</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8449,7 +8756,7 @@
         <v>0.32884615384615384</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8475,7 +8782,7 @@
         <v>0.33206106870229007</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>1</v>
       </c>
@@ -8501,7 +8808,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8527,7 +8834,7 @@
         <v>0.33458646616541354</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>0</v>
       </c>
@@ -8553,7 +8860,7 @@
         <v>0.33582089552238809</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>1</v>
       </c>
@@ -8579,7 +8886,7 @@
         <v>0.33888888888888891</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>0</v>
       </c>
@@ -8605,7 +8912,7 @@
         <v>0.33823529411764708</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>1</v>
       </c>
@@ -8631,7 +8938,7 @@
         <v>0.33941605839416056</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>0</v>
       </c>
@@ -8657,7 +8964,7 @@
         <v>0.33876811594202899</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>1</v>
       </c>
@@ -8683,7 +8990,7 @@
         <v>0.33992805755395683</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>0</v>
       </c>
@@ -8709,7 +9016,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>0</v>
       </c>
@@ -8735,7 +9042,7 @@
         <v>0.33865248226950356</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>0</v>
       </c>
@@ -8761,7 +9068,7 @@
         <v>0.3380281690140845</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>1</v>
       </c>
@@ -8787,7 +9094,7 @@
         <v>0.34090909090909088</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8813,7 +9120,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>1</v>
       </c>
@@ -8839,7 +9146,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>1</v>
       </c>
@@ -8865,7 +9172,7 @@
         <v>0.3458904109589041</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>1</v>
       </c>
@@ -8891,7 +9198,7 @@
         <v>0.34863945578231292</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>0</v>
       </c>
@@ -8917,7 +9224,7 @@
         <v>0.34797297297297297</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>1</v>
       </c>
@@ -8943,7 +9250,7 @@
         <v>0.34899328859060402</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>1</v>
       </c>
@@ -8969,7 +9276,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>1</v>
       </c>
@@ -8995,7 +9302,7 @@
         <v>0.35099337748344372</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>1</v>
       </c>
@@ -9021,7 +9328,7 @@
         <v>0.35197368421052633</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>0</v>
       </c>
@@ -9047,7 +9354,7 @@
         <v>0.35130718954248363</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>1</v>
       </c>
@@ -9073,7 +9380,7 @@
         <v>0.35389610389610388</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>1</v>
       </c>
@@ -9099,7 +9406,7 @@
         <v>0.3564516129032258</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>1</v>
       </c>
@@ -9125,7 +9432,7 @@
         <v>0.35737179487179488</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>1</v>
       </c>
@@ -9151,7 +9458,7 @@
         <v>0.35987261146496813</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>1</v>
       </c>
@@ -9177,7 +9484,7 @@
         <v>0.36075949367088606</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>1</v>
       </c>
@@ -9203,7 +9510,7 @@
         <v>0.36163522012578614</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>1</v>
       </c>
@@ -9229,7 +9536,7 @@
         <v>0.36249999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>1</v>
       </c>
@@ -9255,7 +9562,7 @@
         <v>0.36335403726708076</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>1</v>
       </c>
@@ -9281,7 +9588,7 @@
         <v>0.36419753086419754</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>1</v>
       </c>
@@ -9307,7 +9614,7 @@
         <v>0.3665644171779141</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>1</v>
       </c>
@@ -9333,7 +9640,7 @@
         <v>0.3673780487804878</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>1</v>
       </c>
@@ -9359,7 +9666,7 @@
         <v>0.36818181818181817</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>1</v>
       </c>
@@ -9385,7 +9692,7 @@
         <v>0.36897590361445781</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>1</v>
       </c>
@@ -9411,7 +9718,7 @@
         <v>0.3712574850299401</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>1</v>
       </c>
@@ -9437,7 +9744,7 @@
         <v>0.37202380952380953</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>1</v>
       </c>
@@ -9463,7 +9770,7 @@
         <v>0.37278106508875741</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9489,7 +9796,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>1</v>
       </c>
@@ -9515,7 +9822,7 @@
         <v>0.3757309941520468</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>1</v>
       </c>
@@ -9541,7 +9848,7 @@
         <v>0.37645348837209303</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9567,7 +9874,7 @@
         <v>0.37716763005780346</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>1</v>
       </c>
@@ -9593,7 +9900,7 @@
         <v>0.37787356321839083</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>1</v>
       </c>
@@ -9619,7 +9926,7 @@
         <v>0.37857142857142856</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>1</v>
       </c>
@@ -9645,7 +9952,7 @@
         <v>0.37926136363636365</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9671,7 +9978,7 @@
         <v>0.37994350282485878</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>1</v>
       </c>
@@ -9697,7 +10004,7 @@
         <v>0.3806179775280899</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>1</v>
       </c>
@@ -9723,7 +10030,7 @@
         <v>0.38128491620111732</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>1</v>
       </c>
@@ -9749,7 +10056,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>1</v>
       </c>
@@ -9775,7 +10082,7 @@
         <v>0.38259668508287292</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>1</v>
       </c>
@@ -9801,7 +10108,7 @@
         <v>0.38324175824175827</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>1</v>
       </c>
@@ -9827,7 +10134,7 @@
         <v>0.38387978142076501</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>1</v>
       </c>
@@ -9853,7 +10160,7 @@
         <v>0.38451086956521741</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>0</v>
       </c>
@@ -9879,7 +10186,7 @@
         <v>0.38378378378378381</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>1</v>
       </c>
@@ -9905,7 +10212,7 @@
         <v>0.38440860215053763</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9931,7 +10238,7 @@
         <v>0.38502673796791442</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9957,7 +10264,7 @@
         <v>0.38696808510638298</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>1</v>
       </c>
@@ -9983,7 +10290,7 @@
         <v>0.38756613756613756</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>1</v>
       </c>
@@ -10009,7 +10316,7 @@
         <v>0.38815789473684209</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>0</v>
       </c>
@@ -10035,7 +10342,7 @@
         <v>0.38743455497382201</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>1</v>
       </c>
@@ -10061,7 +10368,7 @@
         <v>0.38802083333333331</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>1</v>
       </c>
@@ -10087,7 +10394,7 @@
         <v>0.38989637305699482</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>1</v>
       </c>
@@ -10113,7 +10420,7 @@
         <v>0.39304123711340205</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>1</v>
       </c>
@@ -10139,7 +10446,7 @@
         <v>0.39358974358974358</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>1</v>
       </c>
@@ -10165,7 +10472,7 @@
         <v>0.39413265306122447</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>1</v>
       </c>
@@ -10191,7 +10498,7 @@
         <v>0.39467005076142131</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>1</v>
       </c>
@@ -10217,7 +10524,7 @@
         <v>0.39520202020202022</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>1</v>
       </c>
@@ -10243,7 +10550,7 @@
         <v>0.39698492462311558</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>1</v>
       </c>
@@ -10269,7 +10576,7 @@
         <v>0.39750000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>1</v>
       </c>
@@ -10295,7 +10602,7 @@
         <v>0.39800995024875624</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>1</v>
       </c>
@@ -10321,7 +10628,7 @@
         <v>0.39851485148514854</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>1</v>
       </c>
@@ -10347,7 +10654,7 @@
         <v>0.39901477832512317</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>1</v>
       </c>
@@ -10373,7 +10680,7 @@
         <v>0.39950980392156865</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>1</v>
       </c>
@@ -10399,7 +10706,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>1</v>
       </c>
@@ -10425,7 +10732,7 @@
         <v>0.40169902912621358</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>1</v>
       </c>
@@ -10451,7 +10758,7 @@
         <v>0.40338164251207731</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>1</v>
       </c>
@@ -10477,7 +10784,7 @@
         <v>0.40384615384615385</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>1</v>
       </c>
@@ -10503,7 +10810,7 @@
         <v>0.40550239234449759</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>1</v>
       </c>
@@ -10529,7 +10836,7 @@
         <v>0.40595238095238095</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>1</v>
       </c>
@@ -10555,7 +10862,7 @@
         <v>0.40639810426540285</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>1</v>
       </c>
@@ -10581,7 +10888,7 @@
         <v>0.40683962264150941</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>1</v>
       </c>
@@ -10607,7 +10914,7 @@
         <v>0.40845070422535212</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>1</v>
       </c>
@@ -10633,7 +10940,7 @@
         <v>0.41004672897196259</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>1</v>
       </c>
@@ -10659,7 +10966,7 @@
         <v>0.41162790697674417</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>1</v>
       </c>
@@ -10685,7 +10992,7 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10711,7 +11018,7 @@
         <v>0.41474654377880182</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>1</v>
       </c>
@@ -10737,7 +11044,7 @@
         <v>0.41628440366972475</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>1</v>
       </c>
@@ -10763,7 +11070,7 @@
         <v>0.41894977168949771</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>1</v>
       </c>
@@ -10789,7 +11096,7 @@
         <v>0.42045454545454547</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>1</v>
       </c>
@@ -10815,7 +11122,7 @@
         <v>0.42081447963800905</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>1</v>
       </c>
@@ -10841,7 +11148,7 @@
         <v>0.42229729729729731</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>1</v>
       </c>
@@ -10867,7 +11174,7 @@
         <v>0.4226457399103139</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>1</v>
       </c>
@@ -10893,7 +11200,7 @@
         <v>0.42410714285714285</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>1</v>
       </c>
@@ -10919,7 +11226,7 @@
         <v>0.42333333333333334</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>1</v>
       </c>
@@ -10945,7 +11252,7 @@
         <v>0.4247787610619469</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>1</v>
       </c>
@@ -10971,7 +11278,7 @@
         <v>0.42511013215859028</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>1</v>
       </c>
@@ -10997,7 +11304,7 @@
         <v>0.42543859649122806</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>1</v>
       </c>
@@ -11023,7 +11330,7 @@
         <v>0.42685589519650657</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>1</v>
       </c>
@@ -11049,7 +11356,7 @@
         <v>0.42934782608695654</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>1</v>
       </c>
@@ -11075,7 +11382,7 @@
         <v>0.42965367965367968</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>1</v>
       </c>
@@ -11101,7 +11408,7 @@
         <v>0.42887931034482757</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>1</v>
       </c>
@@ -11127,7 +11434,7 @@
         <v>0.42918454935622319</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>1</v>
       </c>
@@ -11153,7 +11460,7 @@
         <v>0.42948717948717946</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>1</v>
       </c>
@@ -11179,7 +11486,7 @@
         <v>0.43085106382978722</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>1</v>
       </c>
@@ -11205,7 +11512,7 @@
         <v>0.43008474576271188</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>1</v>
       </c>
@@ -11231,7 +11538,7 @@
         <v>0.43248945147679324</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>1</v>
       </c>
@@ -11257,7 +11564,7 @@
         <v>0.43382352941176472</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>1</v>
       </c>
@@ -11283,7 +11590,7 @@
         <v>0.43410041841004182</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>1</v>
       </c>
@@ -11309,7 +11616,7 @@
         <v>0.43645833333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11335,7 +11642,7 @@
         <v>0.43775933609958506</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>1</v>
       </c>
@@ -11361,7 +11668,7 @@
         <v>0.44008264462809915</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>1</v>
       </c>
@@ -11387,7 +11694,7 @@
         <v>0.44032921810699588</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11413,7 +11720,7 @@
         <v>0.43954918032786883</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>1</v>
       </c>
@@ -11439,7 +11746,7 @@
         <v>0.44081632653061226</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>1</v>
       </c>
@@ -11465,7 +11772,7 @@
         <v>0.44207317073170732</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>1</v>
       </c>
@@ -11491,7 +11798,7 @@
         <v>0.44433198380566802</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>1</v>
       </c>
@@ -11517,7 +11824,7 @@
         <v>0.44556451612903225</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11543,7 +11850,7 @@
         <v>0.44678714859437751</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>1</v>
       </c>
@@ -11569,7 +11876,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>1</v>
       </c>
@@ -11595,7 +11902,7 @@
         <v>0.44820717131474103</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>1</v>
       </c>
@@ -11621,7 +11928,7 @@
         <v>0.44742063492063494</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>1</v>
       </c>
@@ -11647,7 +11954,7 @@
         <v>0.44861660079051385</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>1</v>
       </c>
@@ -11673,7 +11980,7 @@
         <v>0.44783464566929132</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>1</v>
       </c>
@@ -11699,7 +12006,7 @@
         <v>0.44901960784313727</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>1</v>
       </c>
@@ -11725,7 +12032,7 @@
         <v>0.4482421875</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11751,7 +12058,7 @@
         <v>0.45038910505836577</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>1</v>
       </c>
@@ -11777,7 +12084,7 @@
         <v>0.45155038759689925</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>1</v>
       </c>
@@ -11803,7 +12110,7 @@
         <v>0.45270270270270269</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>1</v>
       </c>
@@ -11829,7 +12136,7 @@
         <v>0.45288461538461539</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>1</v>
       </c>
@@ -11855,7 +12162,7 @@
         <v>0.45306513409961685</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>1</v>
       </c>
@@ -11881,7 +12188,7 @@
         <v>0.45419847328244273</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>1</v>
       </c>
@@ -11907,7 +12214,7 @@
         <v>0.45437262357414449</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>1</v>
       </c>
@@ -11933,7 +12240,7 @@
         <v>0.45549242424242425</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>1</v>
       </c>
@@ -11959,7 +12266,7 @@
         <v>0.45754716981132076</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>1</v>
       </c>
@@ -11985,7 +12292,7 @@
         <v>0.4567669172932331</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>1</v>
       </c>
@@ -12011,7 +12318,7 @@
         <v>0.45692883895131087</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>1</v>
       </c>
@@ -12037,7 +12344,7 @@
         <v>0.45802238805970147</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>1</v>
       </c>
@@ -12063,7 +12370,7 @@
         <v>0.45817843866171004</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>1</v>
       </c>
@@ -12089,7 +12396,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>1</v>
       </c>
@@ -12115,7 +12422,7 @@
         <v>0.46033210332103319</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>1</v>
       </c>
@@ -12141,7 +12448,7 @@
         <v>0.46047794117647056</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12167,7 +12474,7 @@
         <v>0.46245421245421248</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>1</v>
       </c>
@@ -12193,7 +12500,7 @@
         <v>0.46441605839416056</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>1</v>
       </c>
@@ -12219,7 +12526,7 @@
         <v>0.46545454545454545</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>1</v>
       </c>
@@ -12245,7 +12552,7 @@
         <v>0.46467391304347827</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>1</v>
       </c>
@@ -12271,7 +12578,7 @@
         <v>0.46660649819494587</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>1</v>
       </c>
@@ -12297,7 +12604,7 @@
         <v>0.46762589928057552</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>1</v>
       </c>
@@ -12323,7 +12630,7 @@
         <v>0.46863799283154123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1</v>
       </c>
@@ -12349,7 +12656,7 @@
         <v>0.46785714285714286</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>1</v>
       </c>
@@ -12375,7 +12682,7 @@
         <v>0.46797153024911031</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1</v>
       </c>
@@ -12401,7 +12708,7 @@
         <v>0.46897163120567376</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>1</v>
       </c>
@@ -12424,7 +12731,7 @@
         <v>0.4684923439340401</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1</v>
       </c>
@@ -12447,7 +12754,7 @@
         <v>0.46801643192488268</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1</v>
       </c>
@@ -12470,7 +12777,7 @@
         <v>0.46754385964912293</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1</v>
       </c>
@@ -12493,7 +12800,7 @@
         <v>0.46707459207459223</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1</v>
       </c>
@@ -12516,7 +12823,7 @@
         <v>0.46660859465737531</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1</v>
       </c>
@@ -12539,7 +12846,7 @@
         <v>0.46614583333333354</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>1</v>
       </c>
@@ -12562,7 +12869,7 @@
         <v>0.46568627450980415</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1</v>
       </c>
@@ -12585,7 +12892,7 @@
         <v>0.46522988505747154</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>1</v>
       </c>
@@ -12608,7 +12915,7 @@
         <v>0.46477663230240579</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>1</v>
       </c>
@@ -12631,7 +12938,7 @@
         <v>0.46432648401826515</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>1</v>
       </c>
@@ -12654,7 +12961,7 @@
         <v>0.46387940841865793</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>1</v>
       </c>
@@ -12677,7 +12984,7 @@
         <v>0.46343537414966024</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>1</v>
       </c>
@@ -12700,7 +13007,7 @@
         <v>0.46299435028248631</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>1</v>
       </c>
@@ -12723,7 +13030,7 @@
         <v>0.46255630630630673</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>1</v>
       </c>
@@ -12746,7 +13053,7 @@
         <v>0.4621212121212126</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>1</v>
       </c>
@@ -12769,7 +13076,7 @@
         <v>0.46168903803132044</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>1</v>
       </c>
@@ -12792,7 +13099,7 @@
         <v>0.46125975473801617</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>1</v>
       </c>
@@ -12815,7 +13122,7 @@
         <v>0.46083333333333393</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>1</v>
       </c>
@@ -12838,7 +13145,7 @@
         <v>0.46040974529346684</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>1</v>
       </c>
@@ -12861,7 +13168,7 @@
         <v>0.45998896247240678</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>1</v>
       </c>
@@ -12884,7 +13191,7 @@
         <v>0.45957095709571022</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1</v>
       </c>
@@ -12907,7 +13214,7 @@
         <v>0.45915570175438664</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>1</v>
       </c>
@@ -12930,7 +13237,7 @@
         <v>0.4587431693989078</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1</v>
       </c>
@@ -12953,7 +13260,7 @@
         <v>0.45833333333333409</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>1</v>
       </c>
@@ -12976,7 +13283,7 @@
         <v>0.45792616720955559</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>1</v>
       </c>
@@ -12999,7 +13306,7 @@
         <v>0.45752164502164583</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>1</v>
       </c>
@@ -13022,7 +13329,7 @@
         <v>0.45711974110032444</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>1</v>
       </c>
@@ -13045,7 +13352,7 @@
         <v>0.45672043010752772</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>1</v>
       </c>
@@ -13068,7 +13375,7 @@
         <v>0.45632368703108339</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>1</v>
       </c>
@@ -13091,7 +13398,7 @@
         <v>0.45592948717948811</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13114,7 +13421,7 @@
         <v>0.45553780617678474</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>1</v>
       </c>
@@ -13137,7 +13444,7 @@
         <v>0.45514861995753814</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>1</v>
       </c>
@@ -13160,7 +13467,7 @@
         <v>0.45476190476190576</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>1</v>
       </c>
@@ -13183,7 +13490,7 @@
         <v>0.4543776371308027</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>1</v>
       </c>
@@ -13206,7 +13513,7 @@
         <v>0.45504731861198838</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>1</v>
       </c>
@@ -13229,7 +13536,7 @@
         <v>0.45466457023060897</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>1</v>
       </c>
@@ -13252,7 +13559,7 @@
         <v>0.45428422152560188</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>1</v>
       </c>
@@ -13275,7 +13582,7 @@
         <v>0.45390625000000107</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1</v>
       </c>
@@ -13298,7 +13605,7 @@
         <v>0.45353063343717659</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>1</v>
       </c>
@@ -13321,7 +13628,7 @@
         <v>0.45315734989648143</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1</v>
       </c>
@@ -13344,7 +13651,7 @@
         <v>0.45278637770897945</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>1</v>
       </c>
@@ -13367,7 +13674,7 @@
         <v>0.45241769547325222</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>1</v>
       </c>
@@ -13390,7 +13697,7 @@
         <v>0.45205128205128325</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>1</v>
       </c>
@@ -13413,7 +13720,7 @@
         <v>0.4516871165644184</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>1</v>
       </c>
@@ -13436,7 +13743,7 @@
         <v>0.45132517838939984</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>1</v>
       </c>
@@ -13459,7 +13766,7 @@
         <v>0.45096544715447284</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1</v>
       </c>
@@ -13482,7 +13789,7 @@
         <v>0.45162107396150075</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>1</v>
       </c>
@@ -13505,7 +13812,7 @@
         <v>0.45126262626262753</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1</v>
       </c>
@@ -13528,7 +13835,7 @@
         <v>0.4509063444108774</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>1</v>
       </c>
@@ -13551,7 +13858,7 @@
         <v>0.45055220883534269</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>1</v>
       </c>
@@ -13574,7 +13881,7 @@
         <v>0.45020020020020152</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>1</v>
       </c>
@@ -13597,7 +13904,7 @@
         <v>0.44985029940119897</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>1</v>
       </c>
@@ -13620,7 +13927,7 @@
         <v>0.44950248756219047</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1</v>
       </c>
@@ -13643,7 +13950,7 @@
         <v>0.44915674603174743</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>1</v>
       </c>
@@ -13666,7 +13973,7 @@
         <v>0.44881305637982338</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>1</v>
       </c>
@@ -13689,7 +13996,7 @@
         <v>0.44847140039447875</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>1</v>
       </c>
@@ -13712,7 +14019,7 @@
         <v>0.44813176007866423</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>1</v>
       </c>
@@ -13735,7 +14042,7 @@
         <v>0.44779411764706034</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>1</v>
       </c>
@@ -13758,7 +14065,7 @@
         <v>0.4474584555229732</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>1</v>
       </c>
@@ -13781,7 +14088,7 @@
         <v>0.4471247563352842</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>1</v>
       </c>
@@ -13804,7 +14111,7 @@
         <v>0.44679300291545349</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>1</v>
       </c>
@@ -13827,7 +14134,7 @@
         <v>0.44646317829457521</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>1</v>
       </c>
@@ -13850,7 +14157,7 @@
         <v>0.44613526570048473</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>1</v>
       </c>
@@ -13873,7 +14180,7 @@
         <v>0.44580924855491494</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>1</v>
       </c>
@@ -13896,7 +14203,7 @@
         <v>0.44548511047070294</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>1</v>
       </c>
@@ -13919,7 +14226,7 @@
         <v>0.44516283524904382</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1</v>
       </c>
@@ -13942,7 +14249,7 @@
         <v>0.4457975167144238</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>1</v>
       </c>
@@ -13965,7 +14272,7 @@
         <v>0.44547619047619214</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>1</v>
       </c>
@@ -13988,7 +14295,7 @@
         <v>0.44515669515669687</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>1</v>
       </c>
@@ -14011,7 +14318,7 @@
         <v>0.44483901515151686</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>1</v>
       </c>
@@ -14034,7 +14341,7 @@
         <v>0.4445231350330518</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>1</v>
       </c>
@@ -14057,7 +14364,7 @@
         <v>0.44420903954802438</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>1</v>
       </c>
@@ -14080,7 +14387,7 @@
         <v>0.44389671361502525</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>1</v>
       </c>
@@ -14103,7 +14410,7 @@
         <v>0.4435861423220992</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>1</v>
       </c>
@@ -14126,7 +14433,7 @@
         <v>0.44327731092437156</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>1</v>
       </c>
@@ -14149,7 +14456,7 @@
         <v>0.44390130353817686</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>1</v>
       </c>
@@ -14172,7 +14479,7 @@
         <v>0.44452181987001105</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>1</v>
       </c>
@@ -14195,7 +14502,7 @@
         <v>0.44421296296296475</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>1</v>
       </c>
@@ -14218,7 +14525,7 @@
         <v>0.44482917820868134</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>1</v>
       </c>
@@ -14241,7 +14548,7 @@
         <v>0.44544198895027798</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>1</v>
       </c>
@@ -14264,7 +14571,7 @@
         <v>0.44605142332415232</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>1</v>
       </c>
@@ -14287,7 +14594,7 @@
         <v>0.44665750915751085</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>1</v>
       </c>
@@ -14310,7 +14617,7 @@
         <v>0.44634703196347203</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>1</v>
       </c>
@@ -14333,7 +14640,7 @@
         <v>0.44694899817850803</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>1</v>
       </c>
@@ -14356,7 +14663,7 @@
         <v>0.44754768392370736</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>1</v>
       </c>
@@ -14379,7 +14686,7 @@
         <v>0.44723731884058138</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>1</v>
       </c>
@@ -14402,7 +14709,7 @@
         <v>0.45054200542005579</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>1</v>
       </c>
@@ -14425,7 +14732,7 @@
         <v>0.45202702702702863</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>1</v>
       </c>
@@ -14448,7 +14755,7 @@
         <v>0.45350404312668624</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>1</v>
       </c>
@@ -14471,7 +14778,7 @@
         <v>0.4540770609319012</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>1</v>
       </c>
@@ -14494,7 +14801,7 @@
         <v>0.45554066130473797</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>1</v>
       </c>
@@ -14517,7 +14824,7 @@
         <v>0.45699643493761299</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>0</v>
       </c>
@@ -14540,7 +14847,7 @@
         <v>0.4575555555555571</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>1</v>
       </c>
@@ -14563,7 +14870,7 @@
         <v>0.45899822695035614</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>1</v>
       </c>
@@ -14586,7 +14893,7 @@
         <v>0.45954907161803865</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>1</v>
       </c>
@@ -14609,7 +14916,7 @@
         <v>0.46274250440917253</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>1</v>
       </c>
@@ -14632,7 +14939,7 @@
         <v>0.46591908531222659</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>1</v>
       </c>
@@ -14655,7 +14962,7 @@
         <v>0.4673245614035102</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>1</v>
       </c>
@@ -14678,7 +14985,7 @@
         <v>0.46872265966754301</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>1</v>
       </c>
@@ -14701,7 +15008,7 @@
         <v>0.46924083769633651</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>1</v>
       </c>
@@ -14724,7 +15031,7 @@
         <v>0.47062663185378734</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>1</v>
       </c>
@@ -14747,7 +15054,7 @@
         <v>0.47200520833333476</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>1</v>
       </c>
@@ -14770,7 +15077,7 @@
         <v>0.47251082251082388</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>1</v>
       </c>
@@ -14793,7 +15100,7 @@
         <v>0.47301381692573535</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>1</v>
       </c>
@@ -14816,7 +15123,7 @@
         <v>0.47351421188630621</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1</v>
       </c>
@@ -14839,7 +15146,7 @@
         <v>0.47401202749141025</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1</v>
       </c>
@@ -14862,7 +15169,7 @@
         <v>0.4745072836332489</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>1</v>
       </c>
@@ -14885,7 +15192,7 @@
         <v>0.47500000000000125</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1</v>
       </c>
@@ -14908,7 +15215,7 @@
         <v>0.47634271099744369</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>1</v>
       </c>
@@ -14931,7 +15238,7 @@
         <v>0.47682823129251822</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>1</v>
       </c>
@@ -14954,7 +15261,7 @@
         <v>0.47731128074639645</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>1</v>
       </c>
@@ -14977,7 +15284,7 @@
         <v>0.47779187817259</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>1</v>
       </c>
@@ -15000,7 +15307,7 @@
         <v>0.47827004219409397</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>1</v>
       </c>
@@ -15023,7 +15330,7 @@
         <v>0.47874579124579236</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>1</v>
       </c>
@@ -15046,7 +15353,7 @@
         <v>0.47921914357682727</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1</v>
       </c>
@@ -15069,7 +15376,7 @@
         <v>0.47969011725293237</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1</v>
       </c>
@@ -15092,7 +15399,7 @@
         <v>0.48015873015873117</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>1</v>
       </c>
@@ -15115,7 +15422,7 @@
         <v>0.48062500000000097</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1</v>
       </c>
@@ -15138,7 +15445,7 @@
         <v>0.48108894430590288</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>1</v>
       </c>
@@ -15161,7 +15468,7 @@
         <v>0.48237976782753</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>1</v>
       </c>
@@ -15184,7 +15491,7 @@
         <v>0.4828370554177015</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>1</v>
       </c>
@@ -15207,7 +15514,7 @@
         <v>0.48494224422442339</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>1</v>
       </c>
@@ -15230,7 +15537,7 @@
         <v>0.48786008230452771</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>1</v>
       </c>
@@ -15253,7 +15560,7 @@
         <v>0.48994252873563315</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>1</v>
       </c>
@@ -15276,7 +15583,7 @@
         <v>0.49201474201474299</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>1</v>
       </c>
@@ -15299,7 +15606,7 @@
         <v>0.49244281045751731</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>1</v>
       </c>
@@ -15322,7 +15629,7 @@
         <v>0.49286878565607267</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>1</v>
       </c>
@@ -15345,7 +15652,7 @@
         <v>0.49329268292683015</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>1</v>
       </c>
@@ -15368,7 +15675,7 @@
         <v>0.49371451743714606</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1</v>
       </c>
@@ -15391,7 +15698,7 @@
         <v>0.49575242718446694</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>1</v>
       </c>
@@ -15414,7 +15721,7 @@
         <v>0.49778046811945209</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>1</v>
       </c>
@@ -15437,7 +15744,7 @@
         <v>0.49979871175523444</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1</v>
       </c>
@@ -15460,7 +15767,7 @@
         <v>0.50180722891566365</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>1</v>
       </c>
@@ -15483,7 +15790,7 @@
         <v>0.50380608974359076</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>1</v>
       </c>
@@ -15506,7 +15813,7 @@
         <v>0.50579536370903377</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1</v>
       </c>
@@ -15529,7 +15836,7 @@
         <v>0.50777511961722588</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>1</v>
       </c>
@@ -15552,7 +15859,7 @@
         <v>0.50815433571996915</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1</v>
       </c>
@@ -15575,7 +15882,7 @@
         <v>0.508531746031747</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>1</v>
       </c>
@@ -15598,7 +15905,7 @@
         <v>0.50890736342042853</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>1</v>
       </c>
@@ -15621,7 +15928,7 @@
         <v>0.5092812006319124</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>1</v>
       </c>
@@ -15644,7 +15951,7 @@
         <v>0.50965327029156904</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>1</v>
       </c>
@@ -15667,7 +15974,7 @@
         <v>0.51159591194968645</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>1</v>
       </c>
@@ -15690,7 +15997,7 @@
         <v>0.51352941176470679</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>1</v>
       </c>
@@ -15713,7 +16020,7 @@
         <v>0.51545383411580692</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>1</v>
       </c>
@@ -15736,7 +16043,7 @@
         <v>0.51580796252927497</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>1</v>
       </c>
@@ -15759,7 +16066,7 @@
         <v>0.51771806853582647</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>1</v>
       </c>
@@ -15782,7 +16089,7 @@
         <v>0.51806526806526898</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>1</v>
       </c>
@@ -15805,7 +16112,7 @@
         <v>0.51763565891472962</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>1</v>
       </c>
@@ -15828,7 +16135,7 @@
         <v>0.51720804331013248</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>1</v>
       </c>
@@ -15851,7 +16158,7 @@
         <v>0.51678240740740844</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>1</v>
       </c>
@@ -15874,7 +16181,7 @@
         <v>0.51866820631254917</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>1</v>
       </c>
@@ -15897,7 +16204,7 @@
         <v>0.52054531490015465</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>1</v>
       </c>
@@ -15920,7 +16227,7 @@
         <v>0.52241379310344938</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>1</v>
       </c>
@@ -15943,7 +16250,7 @@
         <v>0.52198012232416013</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>1</v>
       </c>
@@ -15966,7 +16273,7 @@
         <v>0.52154843630816283</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>1</v>
       </c>
@@ -15989,7 +16296,7 @@
         <v>0.52187975646879858</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>1</v>
       </c>
@@ -16012,7 +16319,7 @@
         <v>0.52372817008352424</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>1</v>
       </c>
@@ -16035,7 +16342,7 @@
         <v>0.52405303030303141</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>1</v>
       </c>
@@ -16058,7 +16365,7 @@
         <v>0.5243764172335611</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>1</v>
       </c>
@@ -16081,7 +16388,7 @@
         <v>0.52469834087481249</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>1</v>
       </c>
@@ -16104,7 +16411,7 @@
         <v>0.5265237020316037</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>1</v>
       </c>
@@ -16127,7 +16434,7 @@
         <v>0.52834084084084187</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>1</v>
       </c>
@@ -16150,7 +16457,7 @@
         <v>0.52790262172284752</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>1</v>
       </c>
@@ -16173,7 +16480,7 @@
         <v>0.52970852017937331</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>1</v>
       </c>
@@ -16196,7 +16503,7 @@
         <v>0.53001491424310321</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>1</v>
       </c>
@@ -16219,7 +16526,7 @@
         <v>0.53180803571428681</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>1</v>
       </c>
@@ -16242,7 +16549,7 @@
         <v>0.53359317000742501</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>1</v>
       </c>
@@ -16265,7 +16572,7 @@
         <v>0.53388888888888997</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>1</v>
       </c>
@@ -16288,7 +16595,7 @@
         <v>0.53418329637841933</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>1</v>
       </c>
@@ -16311,7 +16618,7 @@
         <v>0.534476401179942</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>1</v>
       </c>
@@ -16334,7 +16641,7 @@
         <v>0.53476821192053081</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>1</v>
       </c>
@@ -16357,7 +16664,7 @@
         <v>0.53505873715124919</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>1</v>
       </c>
@@ -16380,7 +16687,7 @@
         <v>0.53681318681318779</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>1</v>
       </c>
@@ -16403,7 +16710,7 @@
         <v>0.53709795321637521</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>0</v>
       </c>
@@ -16426,7 +16733,7 @@
         <v>0.53811086797957797</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>1</v>
       </c>
@@ -16449,7 +16756,7 @@
         <v>0.53839155749636192</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>1</v>
       </c>
@@ -16472,7 +16779,7 @@
         <v>0.54012345679012441</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>1</v>
       </c>
@@ -16495,7 +16802,7 @@
         <v>0.54184782608695747</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>1</v>
       </c>
@@ -16518,7 +16825,7 @@
         <v>0.54356471438901044</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>1</v>
       </c>
@@ -16541,7 +16848,7 @@
         <v>0.54527417027417135</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>1</v>
       </c>
@@ -16564,7 +16871,7 @@
         <v>0.54553635709143367</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>1</v>
       </c>
@@ -16587,7 +16894,7 @@
         <v>0.54579741379310442</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>1</v>
       </c>
@@ -16610,7 +16917,7 @@
         <v>0.54749103942652433</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>1</v>
       </c>
@@ -16633,7 +16940,7 @@
         <v>0.54774678111588082</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>1</v>
       </c>
@@ -16656,7 +16963,7 @@
         <v>0.54942897930050061</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>1</v>
       </c>
@@ -16679,7 +16986,7 @@
         <v>0.55110398860398946</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>1</v>
       </c>
@@ -16702,7 +17009,7 @@
         <v>0.55277185501066184</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>1</v>
       </c>
@@ -16725,7 +17032,7 @@
         <v>0.55443262411347594</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>1</v>
       </c>
@@ -16748,7 +17055,7 @@
         <v>0.556086341118189</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>0</v>
       </c>
@@ -16771,7 +17078,7 @@
         <v>0.55702683615819282</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>1</v>
       </c>
@@ -16794,7 +17101,7 @@
         <v>0.55866807610993729</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1</v>
       </c>
@@ -16817,7 +17124,7 @@
         <v>0.55889592123769416</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>1</v>
       </c>
@@ -16840,7 +17147,7 @@
         <v>0.56052631578947443</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>1</v>
       </c>
@@ -16863,7 +17170,7 @@
         <v>0.56214985994397826</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>1</v>
       </c>
@@ -16886,7 +17193,7 @@
         <v>0.56236897274633191</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>1</v>
       </c>
@@ -16909,7 +17216,7 @@
         <v>0.56398186889818758</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>1</v>
       </c>
@@ -16932,7 +17239,7 @@
         <v>0.56419624217119069</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>1</v>
       </c>
@@ -16955,7 +17262,7 @@
         <v>0.56510416666666741</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>1</v>
       </c>
@@ -16978,7 +17285,7 @@
         <v>0.5667013167013174</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>1</v>
       </c>
@@ -17001,7 +17308,7 @@
         <v>0.56829183955740037</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>1</v>
       </c>
@@ -17024,7 +17331,7 @@
         <v>0.56987577639751608</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>1</v>
       </c>
@@ -17047,7 +17354,7 @@
         <v>0.57145316804407764</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>1</v>
       </c>
@@ -17070,7 +17377,7 @@
         <v>0.57302405498281839</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>1</v>
       </c>
@@ -17093,7 +17400,7 @@
         <v>0.57321673525377281</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>1</v>
       </c>
@@ -17116,7 +17423,7 @@
         <v>0.57477754962354599</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>1</v>
       </c>
@@ -17139,7 +17446,7 @@
         <v>0.57564890710382566</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>1</v>
       </c>
@@ -17162,7 +17469,7 @@
         <v>0.57719836400818048</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>1</v>
       </c>
@@ -17185,7 +17492,7 @@
         <v>0.57738095238095288</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>1</v>
       </c>
@@ -17208,7 +17515,7 @@
         <v>0.57892057026476629</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>1</v>
       </c>
@@ -17231,7 +17538,7 @@
         <v>0.57842140921409257</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8">
       <c r="B494">
         <v>3</v>
       </c>
@@ -17251,7 +17558,7 @@
         <v>0.58029073698444933</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8">
       <c r="B495">
         <v>3</v>
       </c>
@@ -17271,7 +17578,7 @@
         <v>0.58215249662618129</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8">
       <c r="B496">
         <v>3</v>
       </c>
@@ -17291,7 +17598,7 @@
         <v>0.58400673400673442</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:8">
       <c r="B497">
         <v>1</v>
       </c>
@@ -17311,7 +17618,7 @@
         <v>0.58383736559139832</v>
       </c>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:8">
       <c r="B498">
         <v>1</v>
       </c>
@@ -17331,7 +17638,7 @@
         <v>0.58366867873910167</v>
       </c>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:8">
       <c r="B499">
         <v>3</v>
       </c>
@@ -17351,7 +17658,7 @@
         <v>0.58550870147255729</v>
       </c>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:8">
       <c r="B500">
         <v>3</v>
       </c>

--- a/plot/Eggomania/Level0/Plot.xlsx
+++ b/plot/Eggomania/Level0/Plot.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Essex\Master Project\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MasterProj\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -106,32 +106,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eggomania Level 0</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -152,12 +126,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -171,7 +145,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="15875" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1689,7 +1663,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-197B-4BD1-8B14-8595A235EC4B}"/>
             </c:ext>
@@ -1704,77 +1678,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279884200"/>
-        <c:axId val="279883416"/>
+        <c:axId val="312303064"/>
+        <c:axId val="312300112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279884200"/>
+        <c:axId val="312303064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Turn</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> played</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1803,24 +1716,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279883416"/>
+        <c:crossAx val="312300112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="25"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279883416"/>
+        <c:axId val="312300112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,70 +1752,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Avearge</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> s</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>core</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1927,15 +1775,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279884200"/>
+        <c:crossAx val="312303064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1971,12 +1819,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1988,7 +1833,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2002,32 +1847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Eggomania Level 0</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2048,12 +1867,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3585,7 +3404,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE46-4E47-ACB7-78DB8D35DE3F}"/>
             </c:ext>
@@ -3600,77 +3419,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279880280"/>
-        <c:axId val="279878320"/>
+        <c:axId val="406296328"/>
+        <c:axId val="406298952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279880280"/>
+        <c:axId val="406296328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Turn</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> played</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3699,24 +3457,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279878320"/>
+        <c:crossAx val="406298952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="25"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279878320"/>
+        <c:axId val="406298952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,67 +3493,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> score accumumative</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3820,15 +3516,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279880280"/>
+        <c:crossAx val="406296328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3864,12 +3560,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4997,15 +4690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5356,13 +5049,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5376,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5402,7 +5095,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5428,7 +5121,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5454,7 +5147,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5480,7 +5173,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5506,7 +5199,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5532,7 +5225,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5558,7 +5251,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5584,7 +5277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5610,7 +5303,7 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5636,7 +5329,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5662,7 +5355,7 @@
         <v>0.43181818181818182</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5688,7 +5381,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5714,7 +5407,7 @@
         <v>0.36538461538461536</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5740,7 +5433,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5766,7 +5459,7 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5792,7 +5485,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5818,7 +5511,7 @@
         <v>0.27941176470588236</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5844,7 +5537,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5870,7 +5563,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5896,7 +5589,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5922,7 +5615,7 @@
         <v>0.26190476190476192</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5948,7 +5641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5974,7 +5667,7 @@
         <v>0.2391304347826087</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6000,7 +5693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6026,7 +5719,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6052,7 +5745,7 @@
         <v>0.24038461538461539</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6078,7 +5771,7 @@
         <v>0.23148148148148148</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -6104,7 +5797,7 @@
         <v>0.22321428571428573</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -6130,7 +5823,7 @@
         <v>0.21551724137931033</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -6156,7 +5849,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -6182,7 +5875,7 @@
         <v>0.20161290322580644</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -6208,7 +5901,7 @@
         <v>0.2109375</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -6234,7 +5927,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6260,7 +5953,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6286,7 +5979,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6312,7 +6005,7 @@
         <v>0.2013888888888889</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6338,7 +6031,7 @@
         <v>0.19594594594594594</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6364,7 +6057,7 @@
         <v>0.19736842105263158</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6390,7 +6083,7 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6416,7 +6109,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6442,7 +6135,7 @@
         <v>0.20121951219512196</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6468,7 +6161,7 @@
         <v>0.19642857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6494,7 +6187,7 @@
         <v>0.20348837209302326</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6520,7 +6213,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6546,7 +6239,7 @@
         <v>0.21111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -6572,7 +6265,7 @@
         <v>0.21195652173913043</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6598,7 +6291,7 @@
         <v>0.21276595744680851</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6624,7 +6317,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6650,7 +6343,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6676,7 +6369,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -6702,7 +6395,7 @@
         <v>0.2107843137254902</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6728,7 +6421,7 @@
         <v>0.21634615384615385</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6754,7 +6447,7 @@
         <v>0.21698113207547171</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6780,7 +6473,7 @@
         <v>0.21759259259259259</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6806,7 +6499,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6832,7 +6525,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6858,7 +6551,7 @@
         <v>0.22368421052631579</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6884,7 +6577,7 @@
         <v>0.22844827586206898</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6910,7 +6603,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6936,7 +6629,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6962,7 +6655,7 @@
         <v>0.22950819672131148</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6988,7 +6681,7 @@
         <v>0.22983870967741934</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -7014,7 +6707,7 @@
         <v>0.23015873015873015</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7040,7 +6733,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7066,7 +6759,7 @@
         <v>0.24230769230769231</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -7092,7 +6785,7 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -7118,7 +6811,7 @@
         <v>0.2462686567164179</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -7144,7 +6837,7 @@
         <v>0.24632352941176472</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -7170,7 +6863,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7196,7 +6889,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -7222,7 +6915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7248,7 +6941,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -7274,7 +6967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7300,7 +6993,7 @@
         <v>0.2533783783783784</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -7326,7 +7019,7 @@
         <v>0.25666666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -7352,7 +7045,7 @@
         <v>0.25986842105263158</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -7378,7 +7071,7 @@
         <v>0.26298701298701299</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -7404,7 +7097,7 @@
         <v>0.26602564102564102</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7430,7 +7123,7 @@
         <v>0.26898734177215189</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -7456,7 +7149,7 @@
         <v>0.27187499999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7482,7 +7175,7 @@
         <v>0.27469135802469136</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7508,7 +7201,7 @@
         <v>0.27743902439024393</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -7534,7 +7227,7 @@
         <v>0.28012048192771083</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -7560,7 +7253,7 @@
         <v>0.28273809523809523</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7586,7 +7279,7 @@
         <v>0.28235294117647058</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -7612,7 +7305,7 @@
         <v>0.28779069767441862</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7638,7 +7331,7 @@
         <v>0.29022988505747127</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -7664,7 +7357,7 @@
         <v>0.29261363636363635</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -7690,7 +7383,7 @@
         <v>0.29213483146067415</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -7716,7 +7409,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7742,7 +7435,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -7768,7 +7461,7 @@
         <v>0.29891304347826086</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -7794,7 +7487,7 @@
         <v>0.30376344086021506</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7820,7 +7513,7 @@
         <v>0.30585106382978722</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -7846,7 +7539,7 @@
         <v>0.30526315789473685</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -7872,7 +7565,7 @@
         <v>0.3046875</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7898,7 +7591,7 @@
         <v>0.30670103092783507</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -7924,7 +7617,7 @@
         <v>0.30867346938775508</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -7950,7 +7643,7 @@
         <v>0.30808080808080807</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7976,7 +7669,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -8002,7 +7695,7 @@
         <v>0.31188118811881188</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -8028,7 +7721,7 @@
         <v>0.31372549019607843</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -8054,7 +7747,7 @@
         <v>0.31796116504854371</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -8080,7 +7773,7 @@
         <v>0.31971153846153844</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8106,7 +7799,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -8132,7 +7825,7 @@
         <v>0.32311320754716982</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -8158,7 +7851,7 @@
         <v>0.32476635514018692</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -8184,7 +7877,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -8210,7 +7903,7 @@
         <v>0.32798165137614677</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -8236,7 +7929,7 @@
         <v>0.32727272727272727</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -8262,7 +7955,7 @@
         <v>0.32882882882882886</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -8288,7 +7981,7 @@
         <v>0.33035714285714285</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -8314,7 +8007,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -8340,7 +8033,7 @@
         <v>0.33114035087719296</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -8366,7 +8059,7 @@
         <v>0.32826086956521738</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8392,7 +8085,7 @@
         <v>0.32974137931034481</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8418,7 +8111,7 @@
         <v>0.33119658119658119</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0</v>
       </c>
@@ -8444,7 +8137,7 @@
         <v>0.33050847457627119</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -8470,7 +8163,7 @@
         <v>0.33193277310924368</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0</v>
       </c>
@@ -8496,7 +8189,7 @@
         <v>0.33124999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -8522,7 +8215,7 @@
         <v>0.33264462809917356</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0</v>
       </c>
@@ -8548,7 +8241,7 @@
         <v>0.33196721311475408</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -8574,7 +8267,7 @@
         <v>0.33536585365853661</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0</v>
       </c>
@@ -8600,7 +8293,7 @@
         <v>0.33467741935483869</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
@@ -8626,7 +8319,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8652,7 +8345,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8678,7 +8371,7 @@
         <v>0.33267716535433073</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8704,7 +8397,7 @@
         <v>0.330078125</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8730,7 +8423,7 @@
         <v>0.32945736434108525</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8756,7 +8449,7 @@
         <v>0.32884615384615384</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8782,7 +8475,7 @@
         <v>0.33206106870229007</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -8808,7 +8501,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8834,7 +8527,7 @@
         <v>0.33458646616541354</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -8860,7 +8553,7 @@
         <v>0.33582089552238809</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -8886,7 +8579,7 @@
         <v>0.33888888888888891</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -8912,7 +8605,7 @@
         <v>0.33823529411764708</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -8938,7 +8631,7 @@
         <v>0.33941605839416056</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -8964,7 +8657,7 @@
         <v>0.33876811594202899</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -8990,7 +8683,7 @@
         <v>0.33992805755395683</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -9016,7 +8709,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -9042,7 +8735,7 @@
         <v>0.33865248226950356</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0</v>
       </c>
@@ -9068,7 +8761,7 @@
         <v>0.3380281690140845</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -9094,7 +8787,7 @@
         <v>0.34090909090909088</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -9120,7 +8813,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -9146,7 +8839,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -9172,7 +8865,7 @@
         <v>0.3458904109589041</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -9198,7 +8891,7 @@
         <v>0.34863945578231292</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -9224,7 +8917,7 @@
         <v>0.34797297297297297</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -9250,7 +8943,7 @@
         <v>0.34899328859060402</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -9276,7 +8969,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -9302,7 +8995,7 @@
         <v>0.35099337748344372</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -9328,7 +9021,7 @@
         <v>0.35197368421052633</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0</v>
       </c>
@@ -9354,7 +9047,7 @@
         <v>0.35130718954248363</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -9380,7 +9073,7 @@
         <v>0.35389610389610388</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -9406,7 +9099,7 @@
         <v>0.3564516129032258</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -9432,7 +9125,7 @@
         <v>0.35737179487179488</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -9458,7 +9151,7 @@
         <v>0.35987261146496813</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -9484,7 +9177,7 @@
         <v>0.36075949367088606</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -9510,7 +9203,7 @@
         <v>0.36163522012578614</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -9536,7 +9229,7 @@
         <v>0.36249999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -9562,7 +9255,7 @@
         <v>0.36335403726708076</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -9588,7 +9281,7 @@
         <v>0.36419753086419754</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -9614,7 +9307,7 @@
         <v>0.3665644171779141</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -9640,7 +9333,7 @@
         <v>0.3673780487804878</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -9666,7 +9359,7 @@
         <v>0.36818181818181817</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -9692,7 +9385,7 @@
         <v>0.36897590361445781</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -9718,7 +9411,7 @@
         <v>0.3712574850299401</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -9744,7 +9437,7 @@
         <v>0.37202380952380953</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -9770,7 +9463,7 @@
         <v>0.37278106508875741</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9796,7 +9489,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -9822,7 +9515,7 @@
         <v>0.3757309941520468</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -9848,7 +9541,7 @@
         <v>0.37645348837209303</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9874,7 +9567,7 @@
         <v>0.37716763005780346</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -9900,7 +9593,7 @@
         <v>0.37787356321839083</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -9926,7 +9619,7 @@
         <v>0.37857142857142856</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -9952,7 +9645,7 @@
         <v>0.37926136363636365</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9978,7 +9671,7 @@
         <v>0.37994350282485878</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -10004,7 +9697,7 @@
         <v>0.3806179775280899</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -10030,7 +9723,7 @@
         <v>0.38128491620111732</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -10056,7 +9749,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -10082,7 +9775,7 @@
         <v>0.38259668508287292</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -10108,7 +9801,7 @@
         <v>0.38324175824175827</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -10134,7 +9827,7 @@
         <v>0.38387978142076501</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -10160,7 +9853,7 @@
         <v>0.38451086956521741</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -10186,7 +9879,7 @@
         <v>0.38378378378378381</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -10212,7 +9905,7 @@
         <v>0.38440860215053763</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -10238,7 +9931,7 @@
         <v>0.38502673796791442</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -10264,7 +9957,7 @@
         <v>0.38696808510638298</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -10290,7 +9983,7 @@
         <v>0.38756613756613756</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -10316,7 +10009,7 @@
         <v>0.38815789473684209</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -10342,7 +10035,7 @@
         <v>0.38743455497382201</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -10368,7 +10061,7 @@
         <v>0.38802083333333331</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -10394,7 +10087,7 @@
         <v>0.38989637305699482</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -10420,7 +10113,7 @@
         <v>0.39304123711340205</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -10446,7 +10139,7 @@
         <v>0.39358974358974358</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -10472,7 +10165,7 @@
         <v>0.39413265306122447</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -10498,7 +10191,7 @@
         <v>0.39467005076142131</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -10524,7 +10217,7 @@
         <v>0.39520202020202022</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -10550,7 +10243,7 @@
         <v>0.39698492462311558</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -10576,7 +10269,7 @@
         <v>0.39750000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -10602,7 +10295,7 @@
         <v>0.39800995024875624</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -10628,7 +10321,7 @@
         <v>0.39851485148514854</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
@@ -10654,7 +10347,7 @@
         <v>0.39901477832512317</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -10680,7 +10373,7 @@
         <v>0.39950980392156865</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -10706,7 +10399,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -10732,7 +10425,7 @@
         <v>0.40169902912621358</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -10758,7 +10451,7 @@
         <v>0.40338164251207731</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -10784,7 +10477,7 @@
         <v>0.40384615384615385</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -10810,7 +10503,7 @@
         <v>0.40550239234449759</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -10836,7 +10529,7 @@
         <v>0.40595238095238095</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -10862,7 +10555,7 @@
         <v>0.40639810426540285</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -10888,7 +10581,7 @@
         <v>0.40683962264150941</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -10914,7 +10607,7 @@
         <v>0.40845070422535212</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -10940,7 +10633,7 @@
         <v>0.41004672897196259</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -10966,7 +10659,7 @@
         <v>0.41162790697674417</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -10992,7 +10685,7 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -11018,7 +10711,7 @@
         <v>0.41474654377880182</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -11044,7 +10737,7 @@
         <v>0.41628440366972475</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -11070,7 +10763,7 @@
         <v>0.41894977168949771</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
@@ -11096,7 +10789,7 @@
         <v>0.42045454545454547</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -11122,7 +10815,7 @@
         <v>0.42081447963800905</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -11148,7 +10841,7 @@
         <v>0.42229729729729731</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -11174,7 +10867,7 @@
         <v>0.4226457399103139</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
@@ -11200,7 +10893,7 @@
         <v>0.42410714285714285</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
@@ -11226,7 +10919,7 @@
         <v>0.42333333333333334</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -11252,7 +10945,7 @@
         <v>0.4247787610619469</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1</v>
       </c>
@@ -11278,7 +10971,7 @@
         <v>0.42511013215859028</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
@@ -11304,7 +10997,7 @@
         <v>0.42543859649122806</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -11330,7 +11023,7 @@
         <v>0.42685589519650657</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
@@ -11356,7 +11049,7 @@
         <v>0.42934782608695654</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1</v>
       </c>
@@ -11382,7 +11075,7 @@
         <v>0.42965367965367968</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -11408,7 +11101,7 @@
         <v>0.42887931034482757</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -11434,7 +11127,7 @@
         <v>0.42918454935622319</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -11460,7 +11153,7 @@
         <v>0.42948717948717946</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
@@ -11486,7 +11179,7 @@
         <v>0.43085106382978722</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1</v>
       </c>
@@ -11512,7 +11205,7 @@
         <v>0.43008474576271188</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1</v>
       </c>
@@ -11538,7 +11231,7 @@
         <v>0.43248945147679324</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
@@ -11564,7 +11257,7 @@
         <v>0.43382352941176472</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1</v>
       </c>
@@ -11590,7 +11283,7 @@
         <v>0.43410041841004182</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -11616,7 +11309,7 @@
         <v>0.43645833333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11642,7 +11335,7 @@
         <v>0.43775933609958506</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -11668,7 +11361,7 @@
         <v>0.44008264462809915</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1</v>
       </c>
@@ -11694,7 +11387,7 @@
         <v>0.44032921810699588</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11720,7 +11413,7 @@
         <v>0.43954918032786883</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1</v>
       </c>
@@ -11746,7 +11439,7 @@
         <v>0.44081632653061226</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1</v>
       </c>
@@ -11772,7 +11465,7 @@
         <v>0.44207317073170732</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1</v>
       </c>
@@ -11798,7 +11491,7 @@
         <v>0.44433198380566802</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1</v>
       </c>
@@ -11824,7 +11517,7 @@
         <v>0.44556451612903225</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11850,7 +11543,7 @@
         <v>0.44678714859437751</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1</v>
       </c>
@@ -11876,7 +11569,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1</v>
       </c>
@@ -11902,7 +11595,7 @@
         <v>0.44820717131474103</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1</v>
       </c>
@@ -11928,7 +11621,7 @@
         <v>0.44742063492063494</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1</v>
       </c>
@@ -11954,7 +11647,7 @@
         <v>0.44861660079051385</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1</v>
       </c>
@@ -11980,7 +11673,7 @@
         <v>0.44783464566929132</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1</v>
       </c>
@@ -12006,7 +11699,7 @@
         <v>0.44901960784313727</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1</v>
       </c>
@@ -12032,7 +11725,7 @@
         <v>0.4482421875</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1</v>
       </c>
@@ -12058,7 +11751,7 @@
         <v>0.45038910505836577</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1</v>
       </c>
@@ -12084,7 +11777,7 @@
         <v>0.45155038759689925</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -12110,7 +11803,7 @@
         <v>0.45270270270270269</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1</v>
       </c>
@@ -12136,7 +11829,7 @@
         <v>0.45288461538461539</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -12162,7 +11855,7 @@
         <v>0.45306513409961685</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -12188,7 +11881,7 @@
         <v>0.45419847328244273</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -12214,7 +11907,7 @@
         <v>0.45437262357414449</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1</v>
       </c>
@@ -12240,7 +11933,7 @@
         <v>0.45549242424242425</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1</v>
       </c>
@@ -12266,7 +11959,7 @@
         <v>0.45754716981132076</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -12292,7 +11985,7 @@
         <v>0.4567669172932331</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1</v>
       </c>
@@ -12318,7 +12011,7 @@
         <v>0.45692883895131087</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1</v>
       </c>
@@ -12344,7 +12037,7 @@
         <v>0.45802238805970147</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1</v>
       </c>
@@ -12370,7 +12063,7 @@
         <v>0.45817843866171004</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1</v>
       </c>
@@ -12396,7 +12089,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1</v>
       </c>
@@ -12422,7 +12115,7 @@
         <v>0.46033210332103319</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1</v>
       </c>
@@ -12448,7 +12141,7 @@
         <v>0.46047794117647056</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12474,7 +12167,7 @@
         <v>0.46245421245421248</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -12500,7 +12193,7 @@
         <v>0.46441605839416056</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1</v>
       </c>
@@ -12526,7 +12219,7 @@
         <v>0.46545454545454545</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1</v>
       </c>
@@ -12552,7 +12245,7 @@
         <v>0.46467391304347827</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
@@ -12578,7 +12271,7 @@
         <v>0.46660649819494587</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1</v>
       </c>
@@ -12604,7 +12297,7 @@
         <v>0.46762589928057552</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1</v>
       </c>
@@ -12630,7 +12323,7 @@
         <v>0.46863799283154123</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1</v>
       </c>
@@ -12656,7 +12349,7 @@
         <v>0.46785714285714286</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -12682,7 +12375,7 @@
         <v>0.46797153024911031</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -12708,7 +12401,7 @@
         <v>0.46897163120567376</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1</v>
       </c>
@@ -12731,7 +12424,7 @@
         <v>0.4684923439340401</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1</v>
       </c>
@@ -12754,7 +12447,7 @@
         <v>0.46801643192488268</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1</v>
       </c>
@@ -12777,7 +12470,7 @@
         <v>0.46754385964912293</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1</v>
       </c>
@@ -12800,7 +12493,7 @@
         <v>0.46707459207459223</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1</v>
       </c>
@@ -12823,7 +12516,7 @@
         <v>0.46660859465737531</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1</v>
       </c>
@@ -12846,7 +12539,7 @@
         <v>0.46614583333333354</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1</v>
       </c>
@@ -12869,7 +12562,7 @@
         <v>0.46568627450980415</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1</v>
       </c>
@@ -12892,7 +12585,7 @@
         <v>0.46522988505747154</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -12915,7 +12608,7 @@
         <v>0.46477663230240579</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -12938,7 +12631,7 @@
         <v>0.46432648401826515</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1</v>
       </c>
@@ -12961,7 +12654,7 @@
         <v>0.46387940841865793</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1</v>
       </c>
@@ -12984,7 +12677,7 @@
         <v>0.46343537414966024</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1</v>
       </c>
@@ -13007,7 +12700,7 @@
         <v>0.46299435028248631</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1</v>
       </c>
@@ -13030,7 +12723,7 @@
         <v>0.46255630630630673</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1</v>
       </c>
@@ -13053,7 +12746,7 @@
         <v>0.4621212121212126</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1</v>
       </c>
@@ -13076,7 +12769,7 @@
         <v>0.46168903803132044</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1</v>
       </c>
@@ -13099,7 +12792,7 @@
         <v>0.46125975473801617</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1</v>
       </c>
@@ -13122,7 +12815,7 @@
         <v>0.46083333333333393</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -13145,7 +12838,7 @@
         <v>0.46040974529346684</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -13168,7 +12861,7 @@
         <v>0.45998896247240678</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1</v>
       </c>
@@ -13191,7 +12884,7 @@
         <v>0.45957095709571022</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1</v>
       </c>
@@ -13214,7 +12907,7 @@
         <v>0.45915570175438664</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -13237,7 +12930,7 @@
         <v>0.4587431693989078</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -13260,7 +12953,7 @@
         <v>0.45833333333333409</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -13283,7 +12976,7 @@
         <v>0.45792616720955559</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1</v>
       </c>
@@ -13306,7 +12999,7 @@
         <v>0.45752164502164583</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1</v>
       </c>
@@ -13329,7 +13022,7 @@
         <v>0.45711974110032444</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -13352,7 +13045,7 @@
         <v>0.45672043010752772</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1</v>
       </c>
@@ -13375,7 +13068,7 @@
         <v>0.45632368703108339</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -13398,7 +13091,7 @@
         <v>0.45592948717948811</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13421,7 +13114,7 @@
         <v>0.45553780617678474</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1</v>
       </c>
@@ -13444,7 +13137,7 @@
         <v>0.45514861995753814</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>1</v>
       </c>
@@ -13467,7 +13160,7 @@
         <v>0.45476190476190576</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>1</v>
       </c>
@@ -13490,7 +13183,7 @@
         <v>0.4543776371308027</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -13513,7 +13206,7 @@
         <v>0.45504731861198838</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -13536,7 +13229,7 @@
         <v>0.45466457023060897</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -13559,7 +13252,7 @@
         <v>0.45428422152560188</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -13582,7 +13275,7 @@
         <v>0.45390625000000107</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -13605,7 +13298,7 @@
         <v>0.45353063343717659</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -13628,7 +13321,7 @@
         <v>0.45315734989648143</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -13651,7 +13344,7 @@
         <v>0.45278637770897945</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -13674,7 +13367,7 @@
         <v>0.45241769547325222</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1</v>
       </c>
@@ -13697,7 +13390,7 @@
         <v>0.45205128205128325</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1</v>
       </c>
@@ -13720,7 +13413,7 @@
         <v>0.4516871165644184</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -13743,7 +13436,7 @@
         <v>0.45132517838939984</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -13766,7 +13459,7 @@
         <v>0.45096544715447284</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1</v>
       </c>
@@ -13789,7 +13482,7 @@
         <v>0.45162107396150075</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1</v>
       </c>
@@ -13812,7 +13505,7 @@
         <v>0.45126262626262753</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -13835,7 +13528,7 @@
         <v>0.4509063444108774</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1</v>
       </c>
@@ -13858,7 +13551,7 @@
         <v>0.45055220883534269</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1</v>
       </c>
@@ -13881,7 +13574,7 @@
         <v>0.45020020020020152</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1</v>
       </c>
@@ -13904,7 +13597,7 @@
         <v>0.44985029940119897</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1</v>
       </c>
@@ -13927,7 +13620,7 @@
         <v>0.44950248756219047</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1</v>
       </c>
@@ -13950,7 +13643,7 @@
         <v>0.44915674603174743</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1</v>
       </c>
@@ -13973,7 +13666,7 @@
         <v>0.44881305637982338</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1</v>
       </c>
@@ -13996,7 +13689,7 @@
         <v>0.44847140039447875</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -14019,7 +13712,7 @@
         <v>0.44813176007866423</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -14042,7 +13735,7 @@
         <v>0.44779411764706034</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -14065,7 +13758,7 @@
         <v>0.4474584555229732</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -14088,7 +13781,7 @@
         <v>0.4471247563352842</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -14111,7 +13804,7 @@
         <v>0.44679300291545349</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1</v>
       </c>
@@ -14134,7 +13827,7 @@
         <v>0.44646317829457521</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -14157,7 +13850,7 @@
         <v>0.44613526570048473</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -14180,7 +13873,7 @@
         <v>0.44580924855491494</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1</v>
       </c>
@@ -14203,7 +13896,7 @@
         <v>0.44548511047070294</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1</v>
       </c>
@@ -14226,7 +13919,7 @@
         <v>0.44516283524904382</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -14249,7 +13942,7 @@
         <v>0.4457975167144238</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -14272,7 +13965,7 @@
         <v>0.44547619047619214</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -14295,7 +13988,7 @@
         <v>0.44515669515669687</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1</v>
       </c>
@@ -14318,7 +14011,7 @@
         <v>0.44483901515151686</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -14341,7 +14034,7 @@
         <v>0.4445231350330518</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -14364,7 +14057,7 @@
         <v>0.44420903954802438</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -14387,7 +14080,7 @@
         <v>0.44389671361502525</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1</v>
       </c>
@@ -14410,7 +14103,7 @@
         <v>0.4435861423220992</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1</v>
       </c>
@@ -14433,7 +14126,7 @@
         <v>0.44327731092437156</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1</v>
       </c>
@@ -14456,7 +14149,7 @@
         <v>0.44390130353817686</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1</v>
       </c>
@@ -14479,7 +14172,7 @@
         <v>0.44452181987001105</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1</v>
       </c>
@@ -14502,7 +14195,7 @@
         <v>0.44421296296296475</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -14525,7 +14218,7 @@
         <v>0.44482917820868134</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -14548,7 +14241,7 @@
         <v>0.44544198895027798</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1</v>
       </c>
@@ -14571,7 +14264,7 @@
         <v>0.44605142332415232</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1</v>
       </c>
@@ -14594,7 +14287,7 @@
         <v>0.44665750915751085</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1</v>
       </c>
@@ -14617,7 +14310,7 @@
         <v>0.44634703196347203</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1</v>
       </c>
@@ -14640,7 +14333,7 @@
         <v>0.44694899817850803</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -14663,7 +14356,7 @@
         <v>0.44754768392370736</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1</v>
       </c>
@@ -14686,7 +14379,7 @@
         <v>0.44723731884058138</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -14709,7 +14402,7 @@
         <v>0.45054200542005579</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1</v>
       </c>
@@ -14732,7 +14425,7 @@
         <v>0.45202702702702863</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1</v>
       </c>
@@ -14755,7 +14448,7 @@
         <v>0.45350404312668624</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -14778,7 +14471,7 @@
         <v>0.4540770609319012</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1</v>
       </c>
@@ -14801,7 +14494,7 @@
         <v>0.45554066130473797</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1</v>
       </c>
@@ -14824,7 +14517,7 @@
         <v>0.45699643493761299</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -14847,7 +14540,7 @@
         <v>0.4575555555555571</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1</v>
       </c>
@@ -14870,7 +14563,7 @@
         <v>0.45899822695035614</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>1</v>
       </c>
@@ -14893,7 +14586,7 @@
         <v>0.45954907161803865</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1</v>
       </c>
@@ -14916,7 +14609,7 @@
         <v>0.46274250440917253</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -14939,7 +14632,7 @@
         <v>0.46591908531222659</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>1</v>
       </c>
@@ -14962,7 +14655,7 @@
         <v>0.4673245614035102</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -14985,7 +14678,7 @@
         <v>0.46872265966754301</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -15008,7 +14701,7 @@
         <v>0.46924083769633651</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1</v>
       </c>
@@ -15031,7 +14724,7 @@
         <v>0.47062663185378734</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1</v>
       </c>
@@ -15054,7 +14747,7 @@
         <v>0.47200520833333476</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -15077,7 +14770,7 @@
         <v>0.47251082251082388</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1</v>
       </c>
@@ -15100,7 +14793,7 @@
         <v>0.47301381692573535</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1</v>
       </c>
@@ -15123,7 +14816,7 @@
         <v>0.47351421188630621</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1</v>
       </c>
@@ -15146,7 +14839,7 @@
         <v>0.47401202749141025</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1</v>
       </c>
@@ -15169,7 +14862,7 @@
         <v>0.4745072836332489</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1</v>
       </c>
@@ -15192,7 +14885,7 @@
         <v>0.47500000000000125</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1</v>
       </c>
@@ -15215,7 +14908,7 @@
         <v>0.47634271099744369</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1</v>
       </c>
@@ -15238,7 +14931,7 @@
         <v>0.47682823129251822</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -15261,7 +14954,7 @@
         <v>0.47731128074639645</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1</v>
       </c>
@@ -15284,7 +14977,7 @@
         <v>0.47779187817259</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1</v>
       </c>
@@ -15307,7 +15000,7 @@
         <v>0.47827004219409397</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1</v>
       </c>
@@ -15330,7 +15023,7 @@
         <v>0.47874579124579236</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1</v>
       </c>
@@ -15353,7 +15046,7 @@
         <v>0.47921914357682727</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>1</v>
       </c>
@@ -15376,7 +15069,7 @@
         <v>0.47969011725293237</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1</v>
       </c>
@@ -15399,7 +15092,7 @@
         <v>0.48015873015873117</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1</v>
       </c>
@@ -15422,7 +15115,7 @@
         <v>0.48062500000000097</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -15445,7 +15138,7 @@
         <v>0.48108894430590288</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -15468,7 +15161,7 @@
         <v>0.48237976782753</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1</v>
       </c>
@@ -15491,7 +15184,7 @@
         <v>0.4828370554177015</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1</v>
       </c>
@@ -15514,7 +15207,7 @@
         <v>0.48494224422442339</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
@@ -15537,7 +15230,7 @@
         <v>0.48786008230452771</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1</v>
       </c>
@@ -15560,7 +15253,7 @@
         <v>0.48994252873563315</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1</v>
       </c>
@@ -15583,7 +15276,7 @@
         <v>0.49201474201474299</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1</v>
       </c>
@@ -15606,7 +15299,7 @@
         <v>0.49244281045751731</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -15629,7 +15322,7 @@
         <v>0.49286878565607267</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1</v>
       </c>
@@ -15652,7 +15345,7 @@
         <v>0.49329268292683015</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1</v>
       </c>
@@ -15675,7 +15368,7 @@
         <v>0.49371451743714606</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1</v>
       </c>
@@ -15698,7 +15391,7 @@
         <v>0.49575242718446694</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1</v>
       </c>
@@ -15721,7 +15414,7 @@
         <v>0.49778046811945209</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1</v>
       </c>
@@ -15744,7 +15437,7 @@
         <v>0.49979871175523444</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1</v>
       </c>
@@ -15767,7 +15460,7 @@
         <v>0.50180722891566365</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1</v>
       </c>
@@ -15790,7 +15483,7 @@
         <v>0.50380608974359076</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1</v>
       </c>
@@ -15813,7 +15506,7 @@
         <v>0.50579536370903377</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1</v>
       </c>
@@ -15836,7 +15529,7 @@
         <v>0.50777511961722588</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1</v>
       </c>
@@ -15859,7 +15552,7 @@
         <v>0.50815433571996915</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1</v>
       </c>
@@ -15882,7 +15575,7 @@
         <v>0.508531746031747</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -15905,7 +15598,7 @@
         <v>0.50890736342042853</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -15928,7 +15621,7 @@
         <v>0.5092812006319124</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>1</v>
       </c>
@@ -15951,7 +15644,7 @@
         <v>0.50965327029156904</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1</v>
       </c>
@@ -15974,7 +15667,7 @@
         <v>0.51159591194968645</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1</v>
       </c>
@@ -15997,7 +15690,7 @@
         <v>0.51352941176470679</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1</v>
       </c>
@@ -16020,7 +15713,7 @@
         <v>0.51545383411580692</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1</v>
       </c>
@@ -16043,7 +15736,7 @@
         <v>0.51580796252927497</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1</v>
       </c>
@@ -16066,7 +15759,7 @@
         <v>0.51771806853582647</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1</v>
       </c>
@@ -16089,7 +15782,7 @@
         <v>0.51806526806526898</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>1</v>
       </c>
@@ -16112,7 +15805,7 @@
         <v>0.51763565891472962</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>1</v>
       </c>
@@ -16135,7 +15828,7 @@
         <v>0.51720804331013248</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1</v>
       </c>
@@ -16158,7 +15851,7 @@
         <v>0.51678240740740844</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>1</v>
       </c>
@@ -16181,7 +15874,7 @@
         <v>0.51866820631254917</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1</v>
       </c>
@@ -16204,7 +15897,7 @@
         <v>0.52054531490015465</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1</v>
       </c>
@@ -16227,7 +15920,7 @@
         <v>0.52241379310344938</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1</v>
       </c>
@@ -16250,7 +15943,7 @@
         <v>0.52198012232416013</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>1</v>
       </c>
@@ -16273,7 +15966,7 @@
         <v>0.52154843630816283</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>1</v>
       </c>
@@ -16296,7 +15989,7 @@
         <v>0.52187975646879858</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1</v>
       </c>
@@ -16319,7 +16012,7 @@
         <v>0.52372817008352424</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>1</v>
       </c>
@@ -16342,7 +16035,7 @@
         <v>0.52405303030303141</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1</v>
       </c>
@@ -16365,7 +16058,7 @@
         <v>0.5243764172335611</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1</v>
       </c>
@@ -16388,7 +16081,7 @@
         <v>0.52469834087481249</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>1</v>
       </c>
@@ -16411,7 +16104,7 @@
         <v>0.5265237020316037</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1</v>
       </c>
@@ -16434,7 +16127,7 @@
         <v>0.52834084084084187</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>1</v>
       </c>
@@ -16457,7 +16150,7 @@
         <v>0.52790262172284752</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1</v>
       </c>
@@ -16480,7 +16173,7 @@
         <v>0.52970852017937331</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>1</v>
       </c>
@@ -16503,7 +16196,7 @@
         <v>0.53001491424310321</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1</v>
       </c>
@@ -16526,7 +16219,7 @@
         <v>0.53180803571428681</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1</v>
       </c>
@@ -16549,7 +16242,7 @@
         <v>0.53359317000742501</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1</v>
       </c>
@@ -16572,7 +16265,7 @@
         <v>0.53388888888888997</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1</v>
       </c>
@@ -16595,7 +16288,7 @@
         <v>0.53418329637841933</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>1</v>
       </c>
@@ -16618,7 +16311,7 @@
         <v>0.534476401179942</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1</v>
       </c>
@@ -16641,7 +16334,7 @@
         <v>0.53476821192053081</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1</v>
       </c>
@@ -16664,7 +16357,7 @@
         <v>0.53505873715124919</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>1</v>
       </c>
@@ -16687,7 +16380,7 @@
         <v>0.53681318681318779</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1</v>
       </c>
@@ -16710,7 +16403,7 @@
         <v>0.53709795321637521</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0</v>
       </c>
@@ -16733,7 +16426,7 @@
         <v>0.53811086797957797</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1</v>
       </c>
@@ -16756,7 +16449,7 @@
         <v>0.53839155749636192</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1</v>
       </c>
@@ -16779,7 +16472,7 @@
         <v>0.54012345679012441</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1</v>
       </c>
@@ -16802,7 +16495,7 @@
         <v>0.54184782608695747</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -16825,7 +16518,7 @@
         <v>0.54356471438901044</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1</v>
       </c>
@@ -16848,7 +16541,7 @@
         <v>0.54527417027417135</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1</v>
       </c>
@@ -16871,7 +16564,7 @@
         <v>0.54553635709143367</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1</v>
       </c>
@@ -16894,7 +16587,7 @@
         <v>0.54579741379310442</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1</v>
       </c>
@@ -16917,7 +16610,7 @@
         <v>0.54749103942652433</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1</v>
       </c>
@@ -16940,7 +16633,7 @@
         <v>0.54774678111588082</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1</v>
       </c>
@@ -16963,7 +16656,7 @@
         <v>0.54942897930050061</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1</v>
       </c>
@@ -16986,7 +16679,7 @@
         <v>0.55110398860398946</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1</v>
       </c>
@@ -17009,7 +16702,7 @@
         <v>0.55277185501066184</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1</v>
       </c>
@@ -17032,7 +16725,7 @@
         <v>0.55443262411347594</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1</v>
       </c>
@@ -17055,7 +16748,7 @@
         <v>0.556086341118189</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0</v>
       </c>
@@ -17078,7 +16771,7 @@
         <v>0.55702683615819282</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1</v>
       </c>
@@ -17101,7 +16794,7 @@
         <v>0.55866807610993729</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1</v>
       </c>
@@ -17124,7 +16817,7 @@
         <v>0.55889592123769416</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1</v>
       </c>
@@ -17147,7 +16840,7 @@
         <v>0.56052631578947443</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1</v>
       </c>
@@ -17170,7 +16863,7 @@
         <v>0.56214985994397826</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1</v>
       </c>
@@ -17193,7 +16886,7 @@
         <v>0.56236897274633191</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1</v>
       </c>
@@ -17216,7 +16909,7 @@
         <v>0.56398186889818758</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>1</v>
       </c>
@@ -17239,7 +16932,7 @@
         <v>0.56419624217119069</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>1</v>
       </c>
@@ -17262,7 +16955,7 @@
         <v>0.56510416666666741</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1</v>
       </c>
@@ -17285,7 +16978,7 @@
         <v>0.5667013167013174</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -17308,7 +17001,7 @@
         <v>0.56829183955740037</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1</v>
       </c>
@@ -17331,7 +17024,7 @@
         <v>0.56987577639751608</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1</v>
       </c>
@@ -17354,7 +17047,7 @@
         <v>0.57145316804407764</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1</v>
       </c>
@@ -17377,7 +17070,7 @@
         <v>0.57302405498281839</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1</v>
       </c>
@@ -17400,7 +17093,7 @@
         <v>0.57321673525377281</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>1</v>
       </c>
@@ -17423,7 +17116,7 @@
         <v>0.57477754962354599</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>1</v>
       </c>
@@ -17446,7 +17139,7 @@
         <v>0.57564890710382566</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>1</v>
       </c>
@@ -17469,7 +17162,7 @@
         <v>0.57719836400818048</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>1</v>
       </c>
@@ -17492,7 +17185,7 @@
         <v>0.57738095238095288</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1</v>
       </c>
@@ -17515,7 +17208,7 @@
         <v>0.57892057026476629</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1</v>
       </c>
@@ -17538,7 +17231,7 @@
         <v>0.57842140921409257</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B494">
         <v>3</v>
       </c>
@@ -17558,7 +17251,7 @@
         <v>0.58029073698444933</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B495">
         <v>3</v>
       </c>
@@ -17578,7 +17271,7 @@
         <v>0.58215249662618129</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B496">
         <v>3</v>
       </c>
@@ -17598,7 +17291,7 @@
         <v>0.58400673400673442</v>
       </c>
     </row>
-    <row r="497" spans="2:8">
+    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B497">
         <v>1</v>
       </c>
@@ -17618,7 +17311,7 @@
         <v>0.58383736559139832</v>
       </c>
     </row>
-    <row r="498" spans="2:8">
+    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B498">
         <v>1</v>
       </c>
@@ -17638,7 +17331,7 @@
         <v>0.58366867873910167</v>
       </c>
     </row>
-    <row r="499" spans="2:8">
+    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B499">
         <v>3</v>
       </c>
@@ -17658,7 +17351,7 @@
         <v>0.58550870147255729</v>
       </c>
     </row>
-    <row r="500" spans="2:8">
+    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B500">
         <v>3</v>
       </c>

--- a/plot/Eggomania/Level0/Plot.xlsx
+++ b/plot/Eggomania/Level0/Plot.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MasterProj\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Essex\Master Project\Code\gvgai-screen-capture\plot\Eggomania\Level0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -106,6 +106,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -131,7 +132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1663,7 +1664,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-197B-4BD1-8B14-8595A235EC4B}"/>
             </c:ext>
@@ -1678,11 +1679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312303064"/>
-        <c:axId val="312300112"/>
+        <c:axId val="510552168"/>
+        <c:axId val="510554520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312303064"/>
+        <c:axId val="510552168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,10 +1722,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312300112"/>
+        <c:crossAx val="510554520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1732,7 +1733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312300112"/>
+        <c:axId val="510554520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,10 +1781,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312303064"/>
+        <c:crossAx val="510552168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1821,7 +1822,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1833,7 +1834,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1847,6 +1848,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1872,7 +1874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="th-TH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1897,1514 +1899,1381 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$500</c:f>
+              <c:f>Sheet1!$H$51:$H$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="450"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.125</c:v>
+                  <c:v>0.2107843137254902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>0.21634615384615385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.21698113207547171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.21759259259259259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.21818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.22368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47222222222222221</c:v>
+                  <c:v>0.22844827586206898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45</c:v>
+                  <c:v>0.2288135593220339</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.43181818181818182</c:v>
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.22950819672131148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36538461538461536</c:v>
+                  <c:v>0.22983870967741934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3392857142857143</c:v>
+                  <c:v>0.23015873015873015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31666666666666665</c:v>
+                  <c:v>0.234375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.296875</c:v>
+                  <c:v>0.24230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27941176470588236</c:v>
+                  <c:v>0.24242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.2462686567164179</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.24632352941176472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26250000000000001</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26190476190476192</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2391304347826087</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2533783783783784</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.24038461538461539</c:v>
+                  <c:v>0.25666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.23148148148148148</c:v>
+                  <c:v>0.25986842105263158</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22321428571428573</c:v>
+                  <c:v>0.26298701298701299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.21551724137931033</c:v>
+                  <c:v>0.26602564102564102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.26898734177215189</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20161290322580644</c:v>
+                  <c:v>0.27187499999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2109375</c:v>
+                  <c:v>0.27469135802469136</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20454545454545456</c:v>
+                  <c:v>0.27743902439024393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20588235294117646</c:v>
+                  <c:v>0.28012048192771083</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2</c:v>
+                  <c:v>0.28273809523809523</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2013888888888889</c:v>
+                  <c:v>0.28235294117647058</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.19594594594594594</c:v>
+                  <c:v>0.28779069767441862</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.19736842105263158</c:v>
+                  <c:v>0.29022988505747127</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19230769230769232</c:v>
+                  <c:v>0.29261363636363635</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.29213483146067415</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.20121951219512196</c:v>
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.19642857142857142</c:v>
+                  <c:v>0.2967032967032967</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.20348837209302326</c:v>
+                  <c:v>0.29891304347826086</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.20454545454545456</c:v>
+                  <c:v>0.30376344086021506</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.21111111111111111</c:v>
+                  <c:v>0.30585106382978722</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.21195652173913043</c:v>
+                  <c:v>0.30526315789473685</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.21276595744680851</c:v>
+                  <c:v>0.3046875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.30670103092783507</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.20408163265306123</c:v>
+                  <c:v>0.30867346938775508</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.21</c:v>
+                  <c:v>0.30808080808080807</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2107843137254902</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.21634615384615385</c:v>
+                  <c:v>0.31188118811881188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.21698113207547171</c:v>
+                  <c:v>0.31372549019607843</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.21759259259259259</c:v>
+                  <c:v>0.31796116504854371</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.21818181818181817</c:v>
+                  <c:v>0.31971153846153844</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.22368421052631579</c:v>
+                  <c:v>0.32311320754716982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22844827586206898</c:v>
+                  <c:v>0.32476635514018692</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2288135593220339</c:v>
+                  <c:v>0.3263888888888889</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.22916666666666666</c:v>
+                  <c:v>0.32798165137614677</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22950819672131148</c:v>
+                  <c:v>0.32727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.22983870967741934</c:v>
+                  <c:v>0.32882882882882886</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.23015873015873015</c:v>
+                  <c:v>0.33035714285714285</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.234375</c:v>
+                  <c:v>0.33185840707964603</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.24230769230769231</c:v>
+                  <c:v>0.33114035087719296</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.24242424242424243</c:v>
+                  <c:v>0.32826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.2462686567164179</c:v>
+                  <c:v>0.32974137931034481</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.24632352941176472</c:v>
+                  <c:v>0.33119658119658119</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33050847457627119</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33193277310924368</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33124999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33264462809917356</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33196721311475408</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.2533783783783784</c:v>
+                  <c:v>0.33536585365853661</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.25666666666666665</c:v>
+                  <c:v>0.33467741935483869</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25986842105263158</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26298701298701299</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26602564102564102</c:v>
+                  <c:v>0.33267716535433073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.26898734177215189</c:v>
+                  <c:v>0.330078125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.27187499999999998</c:v>
+                  <c:v>0.32945736434108525</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27469135802469136</c:v>
+                  <c:v>0.32884615384615384</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.27743902439024393</c:v>
+                  <c:v>0.33206106870229007</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.28012048192771083</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.28273809523809523</c:v>
+                  <c:v>0.33458646616541354</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.28235294117647058</c:v>
+                  <c:v>0.33582089552238809</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.28779069767441862</c:v>
+                  <c:v>0.33888888888888891</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.29022988505747127</c:v>
+                  <c:v>0.33823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.29261363636363635</c:v>
+                  <c:v>0.33941605839416056</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.29213483146067415</c:v>
+                  <c:v>0.33876811594202899</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.29166666666666669</c:v>
+                  <c:v>0.33992805755395683</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.2967032967032967</c:v>
+                  <c:v>0.3392857142857143</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.29891304347826086</c:v>
+                  <c:v>0.33865248226950356</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.30376344086021506</c:v>
+                  <c:v>0.3380281690140845</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.30585106382978722</c:v>
+                  <c:v>0.34090909090909088</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.30526315789473685</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3046875</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.30670103092783507</c:v>
+                  <c:v>0.3458904109589041</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.30867346938775508</c:v>
+                  <c:v>0.34863945578231292</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.30808080808080807</c:v>
+                  <c:v>0.34797297297297297</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.31</c:v>
+                  <c:v>0.34899328859060402</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.31188118811881188</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.31372549019607843</c:v>
+                  <c:v>0.35099337748344372</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.31796116504854371</c:v>
+                  <c:v>0.35197368421052633</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.31971153846153844</c:v>
+                  <c:v>0.35130718954248363</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.32142857142857145</c:v>
+                  <c:v>0.35389610389610388</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.32311320754716982</c:v>
+                  <c:v>0.3564516129032258</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.32476635514018692</c:v>
+                  <c:v>0.35737179487179488</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.3263888888888889</c:v>
+                  <c:v>0.35987261146496813</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.32798165137614677</c:v>
+                  <c:v>0.36075949367088606</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.32727272727272727</c:v>
+                  <c:v>0.36163522012578614</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.32882882882882886</c:v>
+                  <c:v>0.36249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.33035714285714285</c:v>
+                  <c:v>0.36335403726708076</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.33185840707964603</c:v>
+                  <c:v>0.36419753086419754</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.33114035087719296</c:v>
+                  <c:v>0.3665644171779141</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.32826086956521738</c:v>
+                  <c:v>0.3673780487804878</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.32974137931034481</c:v>
+                  <c:v>0.36818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.33119658119658119</c:v>
+                  <c:v>0.36897590361445781</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.33050847457627119</c:v>
+                  <c:v>0.3712574850299401</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.33193277310924368</c:v>
+                  <c:v>0.37202380952380953</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.33124999999999999</c:v>
+                  <c:v>0.37278106508875741</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.33264462809917356</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.33196721311475408</c:v>
+                  <c:v>0.3757309941520468</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.33536585365853661</c:v>
+                  <c:v>0.37645348837209303</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.33467741935483869</c:v>
+                  <c:v>0.37716763005780346</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.37787356321839083</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.37857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.33267716535433073</c:v>
+                  <c:v>0.37926136363636365</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.330078125</c:v>
+                  <c:v>0.37994350282485878</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.32945736434108525</c:v>
+                  <c:v>0.3806179775280899</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.32884615384615384</c:v>
+                  <c:v>0.38128491620111732</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.33206106870229007</c:v>
+                  <c:v>0.38194444444444442</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.38259668508287292</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.33458646616541354</c:v>
+                  <c:v>0.38324175824175827</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.33582089552238809</c:v>
+                  <c:v>0.38387978142076501</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.33888888888888891</c:v>
+                  <c:v>0.38451086956521741</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.33823529411764708</c:v>
+                  <c:v>0.38378378378378381</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.33941605839416056</c:v>
+                  <c:v>0.38440860215053763</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.33876811594202899</c:v>
+                  <c:v>0.38502673796791442</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.33992805755395683</c:v>
+                  <c:v>0.38696808510638298</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.3392857142857143</c:v>
+                  <c:v>0.38756613756613756</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.33865248226950356</c:v>
+                  <c:v>0.38815789473684209</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.3380281690140845</c:v>
+                  <c:v>0.38743455497382201</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.34090909090909088</c:v>
+                  <c:v>0.38802083333333331</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.38989637305699482</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.39304123711340205</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.3458904109589041</c:v>
+                  <c:v>0.39358974358974358</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.34863945578231292</c:v>
+                  <c:v>0.39413265306122447</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.34797297297297297</c:v>
+                  <c:v>0.39467005076142131</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.34899328859060402</c:v>
+                  <c:v>0.39520202020202022</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.35</c:v>
+                  <c:v>0.39698492462311558</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.35099337748344372</c:v>
+                  <c:v>0.39750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.35197368421052633</c:v>
+                  <c:v>0.39800995024875624</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.35130718954248363</c:v>
+                  <c:v>0.39851485148514854</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.35389610389610388</c:v>
+                  <c:v>0.39901477832512317</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.3564516129032258</c:v>
+                  <c:v>0.39950980392156865</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.35737179487179488</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.35987261146496813</c:v>
+                  <c:v>0.40169902912621358</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.36075949367088606</c:v>
+                  <c:v>0.40338164251207731</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.36163522012578614</c:v>
+                  <c:v>0.40384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.36249999999999999</c:v>
+                  <c:v>0.40550239234449759</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.36335403726708076</c:v>
+                  <c:v>0.40595238095238095</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.36419753086419754</c:v>
+                  <c:v>0.40639810426540285</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.3665644171779141</c:v>
+                  <c:v>0.40683962264150941</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.3673780487804878</c:v>
+                  <c:v>0.40845070422535212</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.36818181818181817</c:v>
+                  <c:v>0.41004672897196259</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.36897590361445781</c:v>
+                  <c:v>0.41162790697674417</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.3712574850299401</c:v>
+                  <c:v>0.41319444444444442</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.37202380952380953</c:v>
+                  <c:v>0.41474654377880182</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.37278106508875741</c:v>
+                  <c:v>0.41628440366972475</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.375</c:v>
+                  <c:v>0.41894977168949771</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.3757309941520468</c:v>
+                  <c:v>0.42045454545454547</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.37645348837209303</c:v>
+                  <c:v>0.42081447963800905</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.37716763005780346</c:v>
+                  <c:v>0.42229729729729731</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.37787356321839083</c:v>
+                  <c:v>0.4226457399103139</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.37857142857142856</c:v>
+                  <c:v>0.42410714285714285</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.37926136363636365</c:v>
+                  <c:v>0.42333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.37994350282485878</c:v>
+                  <c:v>0.4247787610619469</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.3806179775280899</c:v>
+                  <c:v>0.42511013215859028</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.38128491620111732</c:v>
+                  <c:v>0.42543859649122806</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.38194444444444442</c:v>
+                  <c:v>0.42685589519650657</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.38259668508287292</c:v>
+                  <c:v>0.42934782608695654</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.38324175824175827</c:v>
+                  <c:v>0.42965367965367968</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.38387978142076501</c:v>
+                  <c:v>0.42887931034482757</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.38451086956521741</c:v>
+                  <c:v>0.42918454935622319</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.38378378378378381</c:v>
+                  <c:v>0.42948717948717946</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.38440860215053763</c:v>
+                  <c:v>0.43085106382978722</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.38502673796791442</c:v>
+                  <c:v>0.43008474576271188</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.38696808510638298</c:v>
+                  <c:v>0.43248945147679324</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.38756613756613756</c:v>
+                  <c:v>0.43382352941176472</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.38815789473684209</c:v>
+                  <c:v>0.43410041841004182</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.38743455497382201</c:v>
+                  <c:v>0.43645833333333334</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.38802083333333331</c:v>
+                  <c:v>0.43775933609958506</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.38989637305699482</c:v>
+                  <c:v>0.44008264462809915</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.39304123711340205</c:v>
+                  <c:v>0.44032921810699588</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.39358974358974358</c:v>
+                  <c:v>0.43954918032786883</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.39413265306122447</c:v>
+                  <c:v>0.44081632653061226</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.39467005076142131</c:v>
+                  <c:v>0.44207317073170732</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.39520202020202022</c:v>
+                  <c:v>0.44433198380566802</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.39698492462311558</c:v>
+                  <c:v>0.44556451612903225</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.39750000000000002</c:v>
+                  <c:v>0.44678714859437751</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.39800995024875624</c:v>
+                  <c:v>0.44800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.39851485148514854</c:v>
+                  <c:v>0.44820717131474103</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.39901477832512317</c:v>
+                  <c:v>0.44742063492063494</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.39950980392156865</c:v>
+                  <c:v>0.44861660079051385</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44783464566929132</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.40169902912621358</c:v>
+                  <c:v>0.44901960784313727</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.40338164251207731</c:v>
+                  <c:v>0.4482421875</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.40384615384615385</c:v>
+                  <c:v>0.45038910505836577</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.40550239234449759</c:v>
+                  <c:v>0.45155038759689925</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.40595238095238095</c:v>
+                  <c:v>0.45270270270270269</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.40639810426540285</c:v>
+                  <c:v>0.45288461538461539</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.40683962264150941</c:v>
+                  <c:v>0.45306513409961685</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.40845070422535212</c:v>
+                  <c:v>0.45419847328244273</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.41004672897196259</c:v>
+                  <c:v>0.45437262357414449</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.41162790697674417</c:v>
+                  <c:v>0.45549242424242425</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.41319444444444442</c:v>
+                  <c:v>0.45754716981132076</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.41474654377880182</c:v>
+                  <c:v>0.4567669172932331</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.41628440366972475</c:v>
+                  <c:v>0.45692883895131087</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.41894977168949771</c:v>
+                  <c:v>0.45802238805970147</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.42045454545454547</c:v>
+                  <c:v>0.45817843866171004</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.42081447963800905</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.42229729729729731</c:v>
+                  <c:v>0.46033210332103319</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.4226457399103139</c:v>
+                  <c:v>0.46047794117647056</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.42410714285714285</c:v>
+                  <c:v>0.46245421245421248</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.42333333333333334</c:v>
+                  <c:v>0.46441605839416056</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.4247787610619469</c:v>
+                  <c:v>0.46545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.42511013215859028</c:v>
+                  <c:v>0.46467391304347827</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.42543859649122806</c:v>
+                  <c:v>0.46660649819494587</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.42685589519650657</c:v>
+                  <c:v>0.46762589928057552</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.42934782608695654</c:v>
+                  <c:v>0.46863799283154123</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.42965367965367968</c:v>
+                  <c:v>0.46785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.42887931034482757</c:v>
+                  <c:v>0.46797153024911031</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.42918454935622319</c:v>
+                  <c:v>0.46897163120567376</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.42948717948717946</c:v>
+                  <c:v>0.4684923439340401</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.43085106382978722</c:v>
+                  <c:v>0.46801643192488268</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.43008474576271188</c:v>
+                  <c:v>0.46754385964912293</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.43248945147679324</c:v>
+                  <c:v>0.46707459207459223</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.43382352941176472</c:v>
+                  <c:v>0.46660859465737531</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.43410041841004182</c:v>
+                  <c:v>0.46614583333333354</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.43645833333333334</c:v>
+                  <c:v>0.46568627450980415</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.43775933609958506</c:v>
+                  <c:v>0.46522988505747154</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.44008264462809915</c:v>
+                  <c:v>0.46477663230240579</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.44032921810699588</c:v>
+                  <c:v>0.46432648401826515</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.43954918032786883</c:v>
+                  <c:v>0.46387940841865793</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.44081632653061226</c:v>
+                  <c:v>0.46343537414966024</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.44207317073170732</c:v>
+                  <c:v>0.46299435028248631</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.44433198380566802</c:v>
+                  <c:v>0.46255630630630673</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.44556451612903225</c:v>
+                  <c:v>0.4621212121212126</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.44678714859437751</c:v>
+                  <c:v>0.46168903803132044</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.44800000000000001</c:v>
+                  <c:v>0.46125975473801617</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.44820717131474103</c:v>
+                  <c:v>0.46083333333333393</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.44742063492063494</c:v>
+                  <c:v>0.46040974529346684</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.44861660079051385</c:v>
+                  <c:v>0.45998896247240678</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.44783464566929132</c:v>
+                  <c:v>0.45957095709571022</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.44901960784313727</c:v>
+                  <c:v>0.45915570175438664</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.4482421875</c:v>
+                  <c:v>0.4587431693989078</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.45038910505836577</c:v>
+                  <c:v>0.45833333333333409</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.45155038759689925</c:v>
+                  <c:v>0.45792616720955559</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.45270270270270269</c:v>
+                  <c:v>0.45752164502164583</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.45288461538461539</c:v>
+                  <c:v>0.45711974110032444</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.45306513409961685</c:v>
+                  <c:v>0.45672043010752772</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.45419847328244273</c:v>
+                  <c:v>0.45632368703108339</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.45437262357414449</c:v>
+                  <c:v>0.45592948717948811</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.45549242424242425</c:v>
+                  <c:v>0.45553780617678474</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.45754716981132076</c:v>
+                  <c:v>0.45514861995753814</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.4567669172932331</c:v>
+                  <c:v>0.45476190476190576</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.45692883895131087</c:v>
+                  <c:v>0.4543776371308027</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.45802238805970147</c:v>
+                  <c:v>0.45504731861198838</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.45817843866171004</c:v>
+                  <c:v>0.45466457023060897</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.45428422152560188</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.46033210332103319</c:v>
+                  <c:v>0.45390625000000107</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.46047794117647056</c:v>
+                  <c:v>0.45353063343717659</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.46245421245421248</c:v>
+                  <c:v>0.45315734989648143</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.46441605839416056</c:v>
+                  <c:v>0.45278637770897945</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.46545454545454545</c:v>
+                  <c:v>0.45241769547325222</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.46467391304347827</c:v>
+                  <c:v>0.45205128205128325</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.46660649819494587</c:v>
+                  <c:v>0.4516871165644184</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.46762589928057552</c:v>
+                  <c:v>0.45132517838939984</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.46863799283154123</c:v>
+                  <c:v>0.45096544715447284</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.46785714285714286</c:v>
+                  <c:v>0.45162107396150075</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.46797153024911031</c:v>
+                  <c:v>0.45126262626262753</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.46897163120567376</c:v>
+                  <c:v>0.4509063444108774</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.4684923439340401</c:v>
+                  <c:v>0.45055220883534269</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.46801643192488268</c:v>
+                  <c:v>0.45020020020020152</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.46754385964912293</c:v>
+                  <c:v>0.44985029940119897</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.46707459207459223</c:v>
+                  <c:v>0.44950248756219047</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.46660859465737531</c:v>
+                  <c:v>0.44915674603174743</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.46614583333333354</c:v>
+                  <c:v>0.44881305637982338</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.46568627450980415</c:v>
+                  <c:v>0.44847140039447875</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.46522988505747154</c:v>
+                  <c:v>0.44813176007866423</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.46477663230240579</c:v>
+                  <c:v>0.44779411764706034</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.46432648401826515</c:v>
+                  <c:v>0.4474584555229732</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.46387940841865793</c:v>
+                  <c:v>0.4471247563352842</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.46343537414966024</c:v>
+                  <c:v>0.44679300291545349</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.46299435028248631</c:v>
+                  <c:v>0.44646317829457521</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.46255630630630673</c:v>
+                  <c:v>0.44613526570048473</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.4621212121212126</c:v>
+                  <c:v>0.44580924855491494</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.46168903803132044</c:v>
+                  <c:v>0.44548511047070294</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.46125975473801617</c:v>
+                  <c:v>0.44516283524904382</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.46083333333333393</c:v>
+                  <c:v>0.4457975167144238</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.46040974529346684</c:v>
+                  <c:v>0.44547619047619214</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.45998896247240678</c:v>
+                  <c:v>0.44515669515669687</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.45957095709571022</c:v>
+                  <c:v>0.44483901515151686</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.45915570175438664</c:v>
+                  <c:v>0.4445231350330518</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.4587431693989078</c:v>
+                  <c:v>0.44420903954802438</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.45833333333333409</c:v>
+                  <c:v>0.44389671361502525</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.45792616720955559</c:v>
+                  <c:v>0.4435861423220992</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.45752164502164583</c:v>
+                  <c:v>0.44327731092437156</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.45711974110032444</c:v>
+                  <c:v>0.44390130353817686</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.45672043010752772</c:v>
+                  <c:v>0.44452181987001105</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.45632368703108339</c:v>
+                  <c:v>0.44421296296296475</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.45592948717948811</c:v>
+                  <c:v>0.44482917820868134</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.45553780617678474</c:v>
+                  <c:v>0.44544198895027798</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.45514861995753814</c:v>
+                  <c:v>0.44605142332415232</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.45476190476190576</c:v>
+                  <c:v>0.44665750915751085</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.4543776371308027</c:v>
+                  <c:v>0.44634703196347203</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.45504731861198838</c:v>
+                  <c:v>0.44694899817850803</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.45466457023060897</c:v>
+                  <c:v>0.44754768392370736</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.45428422152560188</c:v>
+                  <c:v>0.44723731884058138</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.45390625000000107</c:v>
+                  <c:v>0.45054200542005579</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.45353063343717659</c:v>
+                  <c:v>0.45202702702702863</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.45315734989648143</c:v>
+                  <c:v>0.45350404312668624</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.45278637770897945</c:v>
+                  <c:v>0.4540770609319012</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.45241769547325222</c:v>
+                  <c:v>0.45554066130473797</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.45205128205128325</c:v>
+                  <c:v>0.45699643493761299</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.4516871165644184</c:v>
+                  <c:v>0.4575555555555571</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.45132517838939984</c:v>
+                  <c:v>0.45899822695035614</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.45096544715447284</c:v>
+                  <c:v>0.45954907161803865</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.45162107396150075</c:v>
+                  <c:v>0.46274250440917253</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.45126262626262753</c:v>
+                  <c:v>0.46591908531222659</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.4509063444108774</c:v>
+                  <c:v>0.4673245614035102</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.45055220883534269</c:v>
+                  <c:v>0.46872265966754301</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.45020020020020152</c:v>
+                  <c:v>0.46924083769633651</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0.44985029940119897</c:v>
+                  <c:v>0.47062663185378734</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0.44950248756219047</c:v>
+                  <c:v>0.47200520833333476</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.44915674603174743</c:v>
+                  <c:v>0.47251082251082388</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.44881305637982338</c:v>
+                  <c:v>0.47301381692573535</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.44847140039447875</c:v>
+                  <c:v>0.47351421188630621</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.44813176007866423</c:v>
+                  <c:v>0.47401202749141025</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.44779411764706034</c:v>
+                  <c:v>0.4745072836332489</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.4474584555229732</c:v>
+                  <c:v>0.47500000000000125</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.4471247563352842</c:v>
+                  <c:v>0.47634271099744369</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.44679300291545349</c:v>
+                  <c:v>0.47682823129251822</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.44646317829457521</c:v>
+                  <c:v>0.47731128074639645</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.44613526570048473</c:v>
+                  <c:v>0.47779187817259</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.44580924855491494</c:v>
+                  <c:v>0.47827004219409397</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.44548511047070294</c:v>
+                  <c:v>0.47874579124579236</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.44516283524904382</c:v>
+                  <c:v>0.47921914357682727</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.4457975167144238</c:v>
+                  <c:v>0.47969011725293237</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.44547619047619214</c:v>
+                  <c:v>0.48015873015873117</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.44515669515669687</c:v>
+                  <c:v>0.48062500000000097</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0.44483901515151686</c:v>
+                  <c:v>0.48108894430590288</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0.4445231350330518</c:v>
+                  <c:v>0.48237976782753</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0.44420903954802438</c:v>
+                  <c:v>0.4828370554177015</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.44389671361502525</c:v>
+                  <c:v>0.48494224422442339</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.4435861423220992</c:v>
+                  <c:v>0.48786008230452771</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.44327731092437156</c:v>
+                  <c:v>0.48994252873563315</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.44390130353817686</c:v>
+                  <c:v>0.49201474201474299</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.44452181987001105</c:v>
+                  <c:v>0.49244281045751731</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.44421296296296475</c:v>
+                  <c:v>0.49286878565607267</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.44482917820868134</c:v>
+                  <c:v>0.49329268292683015</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.44544198895027798</c:v>
+                  <c:v>0.49371451743714606</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.44605142332415232</c:v>
+                  <c:v>0.49575242718446694</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0.44665750915751085</c:v>
+                  <c:v>0.49778046811945209</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0.44634703196347203</c:v>
+                  <c:v>0.49979871175523444</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0.44694899817850803</c:v>
+                  <c:v>0.50180722891566365</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0.44754768392370736</c:v>
+                  <c:v>0.50380608974359076</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0.44723731884058138</c:v>
+                  <c:v>0.50579536370903377</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0.45054200542005579</c:v>
+                  <c:v>0.50777511961722588</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0.45202702702702863</c:v>
+                  <c:v>0.50815433571996915</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0.45350404312668624</c:v>
+                  <c:v>0.508531746031747</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0.4540770609319012</c:v>
+                  <c:v>0.50890736342042853</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0.45554066130473797</c:v>
+                  <c:v>0.5092812006319124</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0.45699643493761299</c:v>
+                  <c:v>0.50965327029156904</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0.4575555555555571</c:v>
+                  <c:v>0.51159591194968645</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0.45899822695035614</c:v>
+                  <c:v>0.51352941176470679</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0.45954907161803865</c:v>
+                  <c:v>0.51545383411580692</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0.46274250440917253</c:v>
+                  <c:v>0.51580796252927497</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0.46591908531222659</c:v>
+                  <c:v>0.51771806853582647</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0.4673245614035102</c:v>
+                  <c:v>0.51806526806526898</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0.46872265966754301</c:v>
+                  <c:v>0.51763565891472962</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0.46924083769633651</c:v>
+                  <c:v>0.51720804331013248</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0.47062663185378734</c:v>
+                  <c:v>0.51678240740740844</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0.47200520833333476</c:v>
+                  <c:v>0.51866820631254917</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0.47251082251082388</c:v>
+                  <c:v>0.52054531490015465</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>0.47301381692573535</c:v>
+                  <c:v>0.52241379310344938</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0.47351421188630621</c:v>
+                  <c:v>0.52198012232416013</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0.47401202749141025</c:v>
+                  <c:v>0.52154843630816283</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0.4745072836332489</c:v>
+                  <c:v>0.52187975646879858</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0.47500000000000125</c:v>
+                  <c:v>0.52372817008352424</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0.47634271099744369</c:v>
+                  <c:v>0.52405303030303141</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0.47682823129251822</c:v>
+                  <c:v>0.5243764172335611</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0.47731128074639645</c:v>
+                  <c:v>0.52469834087481249</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0.47779187817259</c:v>
+                  <c:v>0.5265237020316037</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>0.47827004219409397</c:v>
+                  <c:v>0.52834084084084187</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>0.47874579124579236</c:v>
+                  <c:v>0.52790262172284752</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>0.47921914357682727</c:v>
+                  <c:v>0.52970852017937331</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>0.47969011725293237</c:v>
+                  <c:v>0.53001491424310321</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>0.48015873015873117</c:v>
+                  <c:v>0.53180803571428681</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>0.48062500000000097</c:v>
+                  <c:v>0.53359317000742501</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>0.48108894430590288</c:v>
+                  <c:v>0.53388888888888997</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>0.48237976782753</c:v>
+                  <c:v>0.53418329637841933</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>0.4828370554177015</c:v>
+                  <c:v>0.534476401179942</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>0.48494224422442339</c:v>
+                  <c:v>0.53476821192053081</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>0.48786008230452771</c:v>
+                  <c:v>0.53505873715124919</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>0.48994252873563315</c:v>
+                  <c:v>0.53681318681318779</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>0.49201474201474299</c:v>
+                  <c:v>0.53709795321637521</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>0.49244281045751731</c:v>
+                  <c:v>0.53811086797957797</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>0.49286878565607267</c:v>
+                  <c:v>0.53839155749636192</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>0.49329268292683015</c:v>
+                  <c:v>0.54012345679012441</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>0.49371451743714606</c:v>
+                  <c:v>0.54184782608695747</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>0.49575242718446694</c:v>
+                  <c:v>0.54356471438901044</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>0.49778046811945209</c:v>
+                  <c:v>0.54527417027417135</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>0.49979871175523444</c:v>
+                  <c:v>0.54553635709143367</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>0.50180722891566365</c:v>
+                  <c:v>0.54579741379310442</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>0.50380608974359076</c:v>
+                  <c:v>0.54749103942652433</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>0.50579536370903377</c:v>
+                  <c:v>0.54774678111588082</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>0.50777511961722588</c:v>
+                  <c:v>0.54942897930050061</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>0.50815433571996915</c:v>
+                  <c:v>0.55110398860398946</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>0.508531746031747</c:v>
+                  <c:v>0.55277185501066184</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>0.50890736342042853</c:v>
+                  <c:v>0.55443262411347594</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>0.5092812006319124</c:v>
+                  <c:v>0.556086341118189</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>0.50965327029156904</c:v>
+                  <c:v>0.55702683615819282</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>0.51159591194968645</c:v>
+                  <c:v>0.55866807610993729</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>0.51352941176470679</c:v>
+                  <c:v>0.55889592123769416</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>0.51545383411580692</c:v>
+                  <c:v>0.56052631578947443</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>0.51580796252927497</c:v>
+                  <c:v>0.56214985994397826</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>0.51771806853582647</c:v>
+                  <c:v>0.56236897274633191</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>0.51806526806526898</c:v>
+                  <c:v>0.56398186889818758</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>0.51763565891472962</c:v>
+                  <c:v>0.56419624217119069</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>0.51720804331013248</c:v>
+                  <c:v>0.56510416666666741</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>0.51678240740740844</c:v>
+                  <c:v>0.5667013167013174</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>0.51866820631254917</c:v>
+                  <c:v>0.56829183955740037</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>0.52054531490015465</c:v>
+                  <c:v>0.56987577639751608</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>0.52241379310344938</c:v>
+                  <c:v>0.57145316804407764</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>0.52198012232416013</c:v>
+                  <c:v>0.57302405498281839</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>0.52154843630816283</c:v>
+                  <c:v>0.57321673525377281</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>0.52187975646879858</c:v>
+                  <c:v>0.57477754962354599</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>0.52372817008352424</c:v>
+                  <c:v>0.57564890710382566</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>0.52405303030303141</c:v>
+                  <c:v>0.57719836400818048</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>0.5243764172335611</c:v>
+                  <c:v>0.57738095238095288</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>0.52469834087481249</c:v>
+                  <c:v>0.57892057026476629</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>0.5265237020316037</c:v>
+                  <c:v>0.57842140921409257</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>0.52834084084084187</c:v>
+                  <c:v>0.58029073698444933</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>0.52790262172284752</c:v>
+                  <c:v>0.58215249662618129</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>0.52970852017937331</c:v>
+                  <c:v>0.58400673400673442</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>0.53001491424310321</c:v>
+                  <c:v>0.58383736559139832</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>0.53180803571428681</c:v>
+                  <c:v>0.58366867873910167</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>0.53359317000742501</c:v>
+                  <c:v>0.58550870147255729</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>0.53388888888888997</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>0.53418329637841933</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>0.534476401179942</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>0.53476821192053081</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>0.53505873715124919</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>0.53681318681318779</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>0.53709795321637521</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>0.53811086797957797</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>0.53839155749636192</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>0.54012345679012441</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>0.54184782608695747</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>0.54356471438901044</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>0.54527417027417135</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>0.54553635709143367</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>0.54579741379310442</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>0.54749103942652433</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>0.54774678111588082</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>0.54942897930050061</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>0.55110398860398946</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>0.55277185501066184</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>0.55443262411347594</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>0.556086341118189</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>0.55702683615819282</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>0.55866807610993729</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>0.55889592123769416</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>0.56052631578947443</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>0.56214985994397826</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>0.56236897274633191</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>0.56398186889818758</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>0.56419624217119069</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>0.56510416666666741</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>0.5667013167013174</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>0.56829183955740037</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>0.56987577639751608</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>0.57145316804407764</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>0.57302405498281839</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>0.57321673525377281</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>0.57477754962354599</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>0.57564890710382566</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>0.57719836400818048</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>0.57738095238095288</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>0.57892057026476629</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>0.57842140921409257</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>0.58029073698444933</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>0.58215249662618129</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>0.58400673400673442</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>0.58383736559139832</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>0.58366867873910167</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>0.58550870147255729</c:v>
-                </c:pt>
-                <c:pt idx="498">
                   <c:v>0.58734134936539784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE46-4E47-ACB7-78DB8D35DE3F}"/>
             </c:ext>
@@ -3419,11 +3288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="406296328"/>
-        <c:axId val="406298952"/>
+        <c:axId val="510555696"/>
+        <c:axId val="510556480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406296328"/>
+        <c:axId val="510555696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,10 +3331,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406298952"/>
+        <c:crossAx val="510556480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3473,7 +3342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406298952"/>
+        <c:axId val="510556480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,10 +3390,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="th-TH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406296328"/>
+        <c:crossAx val="510555696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3536,6 +3405,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3562,7 +3463,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="th-TH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4690,14 +4591,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4719,16 +4620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5049,13 +4950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H500"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5095,7 +4996,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5121,7 +5022,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5147,7 +5048,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5173,7 +5074,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5199,7 +5100,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5225,7 +5126,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5251,7 +5152,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5277,7 +5178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5303,7 +5204,7 @@
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5329,7 +5230,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5355,7 +5256,7 @@
         <v>0.43181818181818182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5381,7 +5282,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5407,7 +5308,7 @@
         <v>0.36538461538461536</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5433,7 +5334,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5459,7 +5360,7 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5485,7 +5386,7 @@
         <v>0.296875</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5511,7 +5412,7 @@
         <v>0.27941176470588236</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5537,7 +5438,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5563,7 +5464,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5589,7 +5490,7 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5615,7 +5516,7 @@
         <v>0.26190476190476192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5641,7 +5542,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5667,7 +5568,7 @@
         <v>0.2391304347826087</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5693,7 +5594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5719,7 +5620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5745,7 +5646,7 @@
         <v>0.24038461538461539</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5771,7 +5672,7 @@
         <v>0.23148148148148148</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5797,7 +5698,7 @@
         <v>0.22321428571428573</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5823,7 +5724,7 @@
         <v>0.21551724137931033</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5849,7 +5750,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5875,7 +5776,7 @@
         <v>0.20161290322580644</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5901,7 +5802,7 @@
         <v>0.2109375</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5927,7 +5828,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5953,7 +5854,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5979,7 +5880,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6005,7 +5906,7 @@
         <v>0.2013888888888889</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>0</v>
       </c>
@@ -6031,7 +5932,7 @@
         <v>0.19594594594594594</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>0</v>
       </c>
@@ -6057,7 +5958,7 @@
         <v>0.19736842105263158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>0</v>
       </c>
@@ -6083,7 +5984,7 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>0</v>
       </c>
@@ -6109,7 +6010,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6135,7 +6036,7 @@
         <v>0.20121951219512196</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6161,7 +6062,7 @@
         <v>0.19642857142857142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6187,7 +6088,7 @@
         <v>0.20348837209302326</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6213,7 +6114,7 @@
         <v>0.20454545454545456</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6239,7 +6140,7 @@
         <v>0.21111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>0</v>
       </c>
@@ -6265,7 +6166,7 @@
         <v>0.21195652173913043</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6291,7 +6192,7 @@
         <v>0.21276595744680851</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6317,7 +6218,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6343,7 +6244,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6369,7 +6270,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>0</v>
       </c>
@@ -6395,7 +6296,7 @@
         <v>0.2107843137254902</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6421,7 +6322,7 @@
         <v>0.21634615384615385</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6447,7 +6348,7 @@
         <v>0.21698113207547171</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6473,7 +6374,7 @@
         <v>0.21759259259259259</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6499,7 +6400,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6525,7 +6426,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6551,7 +6452,7 @@
         <v>0.22368421052631579</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6577,7 +6478,7 @@
         <v>0.22844827586206898</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6603,7 +6504,7 @@
         <v>0.2288135593220339</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6629,7 +6530,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6655,7 +6556,7 @@
         <v>0.22950819672131148</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6681,7 +6582,7 @@
         <v>0.22983870967741934</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6707,7 +6608,7 @@
         <v>0.23015873015873015</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6733,7 +6634,7 @@
         <v>0.234375</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>1</v>
       </c>
@@ -6759,7 +6660,7 @@
         <v>0.24230769230769231</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6785,7 +6686,7 @@
         <v>0.24242424242424243</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>1</v>
       </c>
@@ -6811,7 +6712,7 @@
         <v>0.2462686567164179</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>0</v>
       </c>
@@ -6837,7 +6738,7 @@
         <v>0.24632352941176472</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6863,7 +6764,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>1</v>
       </c>
@@ -6889,7 +6790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>0</v>
       </c>
@@ -6915,7 +6816,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>0</v>
       </c>
@@ -6941,7 +6842,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>1</v>
       </c>
@@ -6967,7 +6868,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6993,7 +6894,7 @@
         <v>0.2533783783783784</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>1</v>
       </c>
@@ -7019,7 +6920,7 @@
         <v>0.25666666666666665</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>0</v>
       </c>
@@ -7045,7 +6946,7 @@
         <v>0.25986842105263158</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>1</v>
       </c>
@@ -7071,7 +6972,7 @@
         <v>0.26298701298701299</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>1</v>
       </c>
@@ -7097,7 +6998,7 @@
         <v>0.26602564102564102</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7123,7 +7024,7 @@
         <v>0.26898734177215189</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>1</v>
       </c>
@@ -7149,7 +7050,7 @@
         <v>0.27187499999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7175,7 +7076,7 @@
         <v>0.27469135802469136</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7201,7 +7102,7 @@
         <v>0.27743902439024393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>1</v>
       </c>
@@ -7227,7 +7128,7 @@
         <v>0.28012048192771083</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>1</v>
       </c>
@@ -7253,7 +7154,7 @@
         <v>0.28273809523809523</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7279,7 +7180,7 @@
         <v>0.28235294117647058</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>1</v>
       </c>
@@ -7305,7 +7206,7 @@
         <v>0.28779069767441862</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7331,7 +7232,7 @@
         <v>0.29022988505747127</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>1</v>
       </c>
@@ -7357,7 +7258,7 @@
         <v>0.29261363636363635</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>0</v>
       </c>
@@ -7383,7 +7284,7 @@
         <v>0.29213483146067415</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>0</v>
       </c>
@@ -7409,7 +7310,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7435,7 +7336,7 @@
         <v>0.2967032967032967</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>1</v>
       </c>
@@ -7461,7 +7362,7 @@
         <v>0.29891304347826086</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>1</v>
       </c>
@@ -7487,7 +7388,7 @@
         <v>0.30376344086021506</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7513,7 +7414,7 @@
         <v>0.30585106382978722</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>0</v>
       </c>
@@ -7539,7 +7440,7 @@
         <v>0.30526315789473685</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>0</v>
       </c>
@@ -7565,7 +7466,7 @@
         <v>0.3046875</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7591,7 +7492,7 @@
         <v>0.30670103092783507</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>1</v>
       </c>
@@ -7617,7 +7518,7 @@
         <v>0.30867346938775508</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>1</v>
       </c>
@@ -7643,7 +7544,7 @@
         <v>0.30808080808080807</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7669,7 +7570,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7695,7 +7596,7 @@
         <v>0.31188118811881188</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>1</v>
       </c>
@@ -7721,7 +7622,7 @@
         <v>0.31372549019607843</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>1</v>
       </c>
@@ -7747,7 +7648,7 @@
         <v>0.31796116504854371</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>0</v>
       </c>
@@ -7773,7 +7674,7 @@
         <v>0.31971153846153844</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>1</v>
       </c>
@@ -7799,7 +7700,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>1</v>
       </c>
@@ -7825,7 +7726,7 @@
         <v>0.32311320754716982</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>1</v>
       </c>
@@ -7851,7 +7752,7 @@
         <v>0.32476635514018692</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>0</v>
       </c>
@@ -7877,7 +7778,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>1</v>
       </c>
@@ -7903,7 +7804,7 @@
         <v>0.32798165137614677</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>1</v>
       </c>
@@ -7929,7 +7830,7 @@
         <v>0.32727272727272727</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>1</v>
       </c>
@@ -7955,7 +7856,7 @@
         <v>0.32882882882882886</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>1</v>
       </c>
@@ -7981,7 +7882,7 @@
         <v>0.33035714285714285</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>1</v>
       </c>
@@ -8007,7 +7908,7 @@
         <v>0.33185840707964603</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>1</v>
       </c>
@@ -8033,7 +7934,7 @@
         <v>0.33114035087719296</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>0</v>
       </c>
@@ -8059,7 +7960,7 @@
         <v>0.32826086956521738</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>0</v>
       </c>
@@ -8085,7 +7986,7 @@
         <v>0.32974137931034481</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8111,7 +8012,7 @@
         <v>0.33119658119658119</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>0</v>
       </c>
@@ -8137,7 +8038,7 @@
         <v>0.33050847457627119</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>1</v>
       </c>
@@ -8163,7 +8064,7 @@
         <v>0.33193277310924368</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>0</v>
       </c>
@@ -8189,7 +8090,7 @@
         <v>0.33124999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>1</v>
       </c>
@@ -8215,7 +8116,7 @@
         <v>0.33264462809917356</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>0</v>
       </c>
@@ -8241,7 +8142,7 @@
         <v>0.33196721311475408</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>1</v>
       </c>
@@ -8267,7 +8168,7 @@
         <v>0.33536585365853661</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>0</v>
       </c>
@@ -8293,7 +8194,7 @@
         <v>0.33467741935483869</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>0</v>
       </c>
@@ -8319,7 +8220,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8345,7 +8246,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8371,7 +8272,7 @@
         <v>0.33267716535433073</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8397,7 +8298,7 @@
         <v>0.330078125</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8423,7 +8324,7 @@
         <v>0.32945736434108525</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8449,7 +8350,7 @@
         <v>0.32884615384615384</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8475,7 +8376,7 @@
         <v>0.33206106870229007</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>1</v>
       </c>
@@ -8501,7 +8402,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>1</v>
       </c>
@@ -8527,7 +8428,7 @@
         <v>0.33458646616541354</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>0</v>
       </c>
@@ -8553,7 +8454,7 @@
         <v>0.33582089552238809</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>1</v>
       </c>
@@ -8579,7 +8480,7 @@
         <v>0.33888888888888891</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>0</v>
       </c>
@@ -8605,7 +8506,7 @@
         <v>0.33823529411764708</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>1</v>
       </c>
@@ -8631,7 +8532,7 @@
         <v>0.33941605839416056</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>0</v>
       </c>
@@ -8657,7 +8558,7 @@
         <v>0.33876811594202899</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>1</v>
       </c>
@@ -8683,7 +8584,7 @@
         <v>0.33992805755395683</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>0</v>
       </c>
@@ -8709,7 +8610,7 @@
         <v>0.3392857142857143</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>0</v>
       </c>
@@ -8735,7 +8636,7 @@
         <v>0.33865248226950356</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>0</v>
       </c>
@@ -8761,7 +8662,7 @@
         <v>0.3380281690140845</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>1</v>
       </c>
@@ -8787,7 +8688,7 @@
         <v>0.34090909090909088</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8813,7 +8714,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>1</v>
       </c>
@@ -8839,7 +8740,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>1</v>
       </c>
@@ -8865,7 +8766,7 @@
         <v>0.3458904109589041</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>1</v>
       </c>
@@ -8891,7 +8792,7 @@
         <v>0.34863945578231292</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>0</v>
       </c>
@@ -8917,7 +8818,7 @@
         <v>0.34797297297297297</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>1</v>
       </c>
@@ -8943,7 +8844,7 @@
         <v>0.34899328859060402</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>1</v>
       </c>
@@ -8969,7 +8870,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>1</v>
       </c>
@@ -8995,7 +8896,7 @@
         <v>0.35099337748344372</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>1</v>
       </c>
@@ -9021,7 +8922,7 @@
         <v>0.35197368421052633</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>0</v>
       </c>
@@ -9047,7 +8948,7 @@
         <v>0.35130718954248363</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>1</v>
       </c>
@@ -9073,7 +8974,7 @@
         <v>0.35389610389610388</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>1</v>
       </c>
@@ -9099,7 +9000,7 @@
         <v>0.3564516129032258</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>1</v>
       </c>
@@ -9125,7 +9026,7 @@
         <v>0.35737179487179488</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>1</v>
       </c>
@@ -9151,7 +9052,7 @@
         <v>0.35987261146496813</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>1</v>
       </c>
@@ -9177,7 +9078,7 @@
         <v>0.36075949367088606</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>1</v>
       </c>
@@ -9203,7 +9104,7 @@
         <v>0.36163522012578614</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>1</v>
       </c>
@@ -9229,7 +9130,7 @@
         <v>0.36249999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>1</v>
       </c>
@@ -9255,7 +9156,7 @@
         <v>0.36335403726708076</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>1</v>
       </c>
@@ -9281,7 +9182,7 @@
         <v>0.36419753086419754</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>1</v>
       </c>
@@ -9307,7 +9208,7 @@
         <v>0.3665644171779141</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>1</v>
       </c>
@@ -9333,7 +9234,7 @@
         <v>0.3673780487804878</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>1</v>
       </c>
@@ -9359,7 +9260,7 @@
         <v>0.36818181818181817</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>1</v>
       </c>
@@ -9385,7 +9286,7 @@
         <v>0.36897590361445781</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>1</v>
       </c>
@@ -9411,7 +9312,7 @@
         <v>0.3712574850299401</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>1</v>
       </c>
@@ -9437,7 +9338,7 @@
         <v>0.37202380952380953</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>1</v>
       </c>
@@ -9463,7 +9364,7 @@
         <v>0.37278106508875741</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9489,7 +9390,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>1</v>
       </c>
@@ -9515,7 +9416,7 @@
         <v>0.3757309941520468</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>1</v>
       </c>
@@ -9541,7 +9442,7 @@
         <v>0.37645348837209303</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9567,7 +9468,7 @@
         <v>0.37716763005780346</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>1</v>
       </c>
@@ -9593,7 +9494,7 @@
         <v>0.37787356321839083</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>1</v>
       </c>
@@ -9619,7 +9520,7 @@
         <v>0.37857142857142856</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>1</v>
       </c>
@@ -9645,7 +9546,7 @@
         <v>0.37926136363636365</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9671,7 +9572,7 @@
         <v>0.37994350282485878</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>1</v>
       </c>
@@ -9697,7 +9598,7 @@
         <v>0.3806179775280899</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>1</v>
       </c>
@@ -9723,7 +9624,7 @@
         <v>0.38128491620111732</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>1</v>
       </c>
@@ -9749,7 +9650,7 @@
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>1</v>
       </c>
@@ -9775,7 +9676,7 @@
         <v>0.38259668508287292</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>1</v>
       </c>
@@ -9801,7 +9702,7 @@
         <v>0.38324175824175827</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>1</v>
       </c>
@@ -9827,7 +9728,7 @@
         <v>0.38387978142076501</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>1</v>
       </c>
@@ -9853,7 +9754,7 @@
         <v>0.38451086956521741</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>0</v>
       </c>
@@ -9879,7 +9780,7 @@
         <v>0.38378378378378381</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>1</v>
       </c>
@@ -9905,7 +9806,7 @@
         <v>0.38440860215053763</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9931,7 +9832,7 @@
         <v>0.38502673796791442</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9957,7 +9858,7 @@
         <v>0.38696808510638298</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>1</v>
       </c>
@@ -9983,7 +9884,7 @@
         <v>0.38756613756613756</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>1</v>
       </c>
@@ -10009,7 +9910,7 @@
         <v>0.38815789473684209</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>0</v>
       </c>
@@ -10035,7 +9936,7 @@
         <v>0.38743455497382201</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>1</v>
       </c>
@@ -10061,7 +9962,7 @@
         <v>0.38802083333333331</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>1</v>
       </c>
@@ -10087,7 +9988,7 @@
         <v>0.38989637305699482</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>1</v>
       </c>
@@ -10113,7 +10014,7 @@
         <v>0.39304123711340205</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>1</v>
       </c>
@@ -10139,7 +10040,7 @@
         <v>0.39358974358974358</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>1</v>
       </c>
@@ -10165,7 +10066,7 @@
         <v>0.39413265306122447</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>1</v>
       </c>
@@ -10191,7 +10092,7 @@
         <v>0.39467005076142131</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>1</v>
       </c>
@@ -10217,7 +10118,7 @@
         <v>0.39520202020202022</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>1</v>
       </c>
@@ -10243,7 +10144,7 @@
         <v>0.39698492462311558</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>1</v>
       </c>
@@ -10269,7 +10170,7 @@
         <v>0.39750000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>1</v>
       </c>
@@ -10295,7 +10196,7 @@
         <v>0.39800995024875624</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>1</v>
       </c>
@@ -10321,7 +10222,7 @@
         <v>0.39851485148514854</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>1</v>
       </c>
@@ -10347,7 +10248,7 @@
         <v>0.39901477832512317</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>1</v>
       </c>
@@ -10373,7 +10274,7 @@
         <v>0.39950980392156865</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>1</v>
       </c>
@@ -10399,7 +10300,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>1</v>
       </c>
@@ -10425,7 +10326,7 @@
         <v>0.40169902912621358</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>1</v>
       </c>
@@ -10451,7 +10352,7 @@
         <v>0.40338164251207731</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>1</v>
       </c>
@@ -10477,7 +10378,7 @@
         <v>0.40384615384615385</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>1</v>
       </c>
@@ -10503,7 +10404,7 @@
         <v>0.40550239234449759</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>1</v>
       </c>
@@ -10529,7 +10430,7 @@
         <v>0.40595238095238095</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>1</v>
       </c>
@@ -10555,7 +10456,7 @@
         <v>0.40639810426540285</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>1</v>
       </c>
@@ -10581,7 +10482,7 @@
         <v>0.40683962264150941</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>1</v>
       </c>
@@ -10607,7 +10508,7 @@
         <v>0.40845070422535212</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>1</v>
       </c>
@@ -10633,7 +10534,7 @@
         <v>0.41004672897196259</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>1</v>
       </c>
@@ -10659,7 +10560,7 @@
         <v>0.41162790697674417</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>1</v>
       </c>
@@ -10685,7 +10586,7 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10711,7 +10612,7 @@
         <v>0.41474654377880182</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>1</v>
       </c>
@@ -10737,7 +10638,7 @@
         <v>0.41628440366972475</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>1</v>
       </c>
@@ -10763,7 +10664,7 @@
         <v>0.41894977168949771</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>1</v>
       </c>
@@ -10789,7 +10690,7 @@
         <v>0.42045454545454547</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>1</v>
       </c>
@@ -10815,7 +10716,7 @@
         <v>0.42081447963800905</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>1</v>
       </c>
@@ -10841,7 +10742,7 @@
         <v>0.42229729729729731</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>1</v>
       </c>
@@ -10867,7 +10768,7 @@
         <v>0.4226457399103139</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>1</v>
       </c>
@@ -10893,7 +10794,7 @@
         <v>0.42410714285714285</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>1</v>
       </c>
@@ -10919,7 +10820,7 @@
         <v>0.42333333333333334</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>1</v>
       </c>
@@ -10945,7 +10846,7 @@
         <v>0.4247787610619469</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>1</v>
       </c>
@@ -10971,7 +10872,7 @@
         <v>0.42511013215859028</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>1</v>
       </c>
@@ -10997,7 +10898,7 @@
         <v>0.42543859649122806</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>1</v>
       </c>
@@ -11023,7 +10924,7 @@
         <v>0.42685589519650657</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>1</v>
       </c>
@@ -11049,7 +10950,7 @@
         <v>0.42934782608695654</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>1</v>
       </c>
@@ -11075,7 +10976,7 @@
         <v>0.42965367965367968</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>1</v>
       </c>
@@ -11101,7 +11002,7 @@
         <v>0.42887931034482757</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>1</v>
       </c>
@@ -11127,7 +11028,7 @@
         <v>0.42918454935622319</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>1</v>
       </c>
@@ -11153,7 +11054,7 @@
         <v>0.42948717948717946</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>1</v>
       </c>
@@ -11179,7 +11080,7 @@
         <v>0.43085106382978722</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>1</v>
       </c>
@@ -11205,7 +11106,7 @@
         <v>0.43008474576271188</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>1</v>
       </c>
@@ -11231,7 +11132,7 @@
         <v>0.43248945147679324</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>1</v>
       </c>
@@ -11257,7 +11158,7 @@
         <v>0.43382352941176472</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>1</v>
       </c>
@@ -11283,7 +11184,7 @@
         <v>0.43410041841004182</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>1</v>
       </c>
@@ -11309,7 +11210,7 @@
         <v>0.43645833333333334</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>1</v>
       </c>
@@ -11335,7 +11236,7 @@
         <v>0.43775933609958506</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>1</v>
       </c>
@@ -11361,7 +11262,7 @@
         <v>0.44008264462809915</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>1</v>
       </c>
@@ -11387,7 +11288,7 @@
         <v>0.44032921810699588</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11413,7 +11314,7 @@
         <v>0.43954918032786883</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>1</v>
       </c>
@@ -11439,7 +11340,7 @@
         <v>0.44081632653061226</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>1</v>
       </c>
@@ -11465,7 +11366,7 @@
         <v>0.44207317073170732</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>1</v>
       </c>
@@ -11491,7 +11392,7 @@
         <v>0.44433198380566802</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>1</v>
       </c>
@@ -11517,7 +11418,7 @@
         <v>0.44556451612903225</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11543,7 +11444,7 @@
         <v>0.44678714859437751</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>1</v>
       </c>
@@ -11569,7 +11470,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>1</v>
       </c>
@@ -11595,7 +11496,7 @@
         <v>0.44820717131474103</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>1</v>
       </c>
@@ -11621,7 +11522,7 @@
         <v>0.44742063492063494</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>1</v>
       </c>
@@ -11647,7 +11548,7 @@
         <v>0.44861660079051385</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>1</v>
       </c>
@@ -11673,7 +11574,7 @@
         <v>0.44783464566929132</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>1</v>
       </c>
@@ -11699,7 +11600,7 @@
         <v>0.44901960784313727</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>1</v>
       </c>
@@ -11725,7 +11626,7 @@
         <v>0.4482421875</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11751,7 +11652,7 @@
         <v>0.45038910505836577</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>1</v>
       </c>
@@ -11777,7 +11678,7 @@
         <v>0.45155038759689925</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>1</v>
       </c>
@@ -11803,7 +11704,7 @@
         <v>0.45270270270270269</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>1</v>
       </c>
@@ -11829,7 +11730,7 @@
         <v>0.45288461538461539</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>1</v>
       </c>
@@ -11855,7 +11756,7 @@
         <v>0.45306513409961685</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>1</v>
       </c>
@@ -11881,7 +11782,7 @@
         <v>0.45419847328244273</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>1</v>
       </c>
@@ -11907,7 +11808,7 @@
         <v>0.45437262357414449</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>1</v>
       </c>
@@ -11933,7 +11834,7 @@
         <v>0.45549242424242425</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>1</v>
       </c>
@@ -11959,7 +11860,7 @@
         <v>0.45754716981132076</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>1</v>
       </c>
@@ -11985,7 +11886,7 @@
         <v>0.4567669172932331</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>1</v>
       </c>
@@ -12011,7 +11912,7 @@
         <v>0.45692883895131087</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>1</v>
       </c>
@@ -12037,7 +11938,7 @@
         <v>0.45802238805970147</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>1</v>
       </c>
@@ -12063,7 +11964,7 @@
         <v>0.45817843866171004</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>1</v>
       </c>
@@ -12089,7 +11990,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>1</v>
       </c>
@@ -12115,7 +12016,7 @@
         <v>0.46033210332103319</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>1</v>
       </c>
@@ -12141,7 +12042,7 @@
         <v>0.46047794117647056</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12167,7 +12068,7 @@
         <v>0.46245421245421248</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>1</v>
       </c>
@@ -12193,7 +12094,7 @@
         <v>0.46441605839416056</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>1</v>
       </c>
@@ -12219,7 +12120,7 @@
         <v>0.46545454545454545</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>1</v>
       </c>
@@ -12245,7 +12146,7 @@
         <v>0.46467391304347827</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>1</v>
       </c>
@@ -12271,7 +12172,7 @@
         <v>0.46660649819494587</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>1</v>
       </c>
@@ -12297,7 +12198,7 @@
         <v>0.46762589928057552</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>1</v>
       </c>
@@ -12323,7 +12224,7 @@
         <v>0.46863799283154123</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1</v>
       </c>
@@ -12349,7 +12250,7 @@
         <v>0.46785714285714286</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>1</v>
       </c>
@@ -12375,7 +12276,7 @@
         <v>0.46797153024911031</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1</v>
       </c>
@@ -12401,7 +12302,7 @@
         <v>0.46897163120567376</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>1</v>
       </c>
@@ -12424,7 +12325,7 @@
         <v>0.4684923439340401</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1</v>
       </c>
@@ -12447,7 +12348,7 @@
         <v>0.46801643192488268</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1</v>
       </c>
@@ -12470,7 +12371,7 @@
         <v>0.46754385964912293</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1</v>
       </c>
@@ -12493,7 +12394,7 @@
         <v>0.46707459207459223</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1</v>
       </c>
@@ -12516,7 +12417,7 @@
         <v>0.46660859465737531</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1</v>
       </c>
@@ -12539,7 +12440,7 @@
         <v>0.46614583333333354</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>1</v>
       </c>
@@ -12562,7 +12463,7 @@
         <v>0.46568627450980415</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1</v>
       </c>
@@ -12585,7 +12486,7 @@
         <v>0.46522988505747154</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>1</v>
       </c>
@@ -12608,7 +12509,7 @@
         <v>0.46477663230240579</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>1</v>
       </c>
@@ -12631,7 +12532,7 @@
         <v>0.46432648401826515</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>1</v>
       </c>
@@ -12654,7 +12555,7 @@
         <v>0.46387940841865793</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>1</v>
       </c>
@@ -12677,7 +12578,7 @@
         <v>0.46343537414966024</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>1</v>
       </c>
@@ -12700,7 +12601,7 @@
         <v>0.46299435028248631</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>1</v>
       </c>
@@ -12723,7 +12624,7 @@
         <v>0.46255630630630673</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>1</v>
       </c>
@@ -12746,7 +12647,7 @@
         <v>0.4621212121212126</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>1</v>
       </c>
@@ -12769,7 +12670,7 @@
         <v>0.46168903803132044</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>1</v>
       </c>
@@ -12792,7 +12693,7 @@
         <v>0.46125975473801617</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>1</v>
       </c>
@@ -12815,7 +12716,7 @@
         <v>0.46083333333333393</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>1</v>
       </c>
@@ -12838,7 +12739,7 @@
         <v>0.46040974529346684</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>1</v>
       </c>
@@ -12861,7 +12762,7 @@
         <v>0.45998896247240678</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>1</v>
       </c>
@@ -12884,7 +12785,7 @@
         <v>0.45957095709571022</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1</v>
       </c>
@@ -12907,7 +12808,7 @@
         <v>0.45915570175438664</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>1</v>
       </c>
@@ -12930,7 +12831,7 @@
         <v>0.4587431693989078</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1</v>
       </c>
@@ -12953,7 +12854,7 @@
         <v>0.45833333333333409</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>1</v>
       </c>
@@ -12976,7 +12877,7 @@
         <v>0.45792616720955559</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>1</v>
       </c>
@@ -12999,7 +12900,7 @@
         <v>0.45752164502164583</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>1</v>
       </c>
@@ -13022,7 +12923,7 @@
         <v>0.45711974110032444</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>1</v>
       </c>
@@ -13045,7 +12946,7 @@
         <v>0.45672043010752772</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>1</v>
       </c>
@@ -13068,7 +12969,7 @@
         <v>0.45632368703108339</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>1</v>
       </c>
@@ -13091,7 +12992,7 @@
         <v>0.45592948717948811</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13114,7 +13015,7 @@
         <v>0.45553780617678474</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>1</v>
       </c>
@@ -13137,7 +13038,7 @@
         <v>0.45514861995753814</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>1</v>
       </c>
@@ -13160,7 +13061,7 @@
         <v>0.45476190476190576</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>1</v>
       </c>
@@ -13183,7 +13084,7 @@
         <v>0.4543776371308027</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>1</v>
       </c>
@@ -13206,7 +13107,7 @@
         <v>0.45504731861198838</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>1</v>
       </c>
@@ -13229,7 +13130,7 @@
         <v>0.45466457023060897</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>1</v>
       </c>
@@ -13252,7 +13153,7 @@
         <v>0.45428422152560188</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>1</v>
       </c>
@@ -13275,7 +13176,7 @@
         <v>0.45390625000000107</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1</v>
       </c>
@@ -13298,7 +13199,7 @@
         <v>0.45353063343717659</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>1</v>
       </c>
@@ -13321,7 +13222,7 @@
         <v>0.45315734989648143</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1</v>
       </c>
@@ -13344,7 +13245,7 @@
         <v>0.45278637770897945</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>1</v>
       </c>
@@ -13367,7 +13268,7 @@
         <v>0.45241769547325222</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>1</v>
       </c>
@@ -13390,7 +13291,7 @@
         <v>0.45205128205128325</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>1</v>
       </c>
@@ -13413,7 +13314,7 @@
         <v>0.4516871165644184</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>1</v>
       </c>
@@ -13436,7 +13337,7 @@
         <v>0.45132517838939984</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>1</v>
       </c>
@@ -13459,7 +13360,7 @@
         <v>0.45096544715447284</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1</v>
       </c>
@@ -13482,7 +13383,7 @@
         <v>0.45162107396150075</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>1</v>
       </c>
@@ -13505,7 +13406,7 @@
         <v>0.45126262626262753</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1</v>
       </c>
@@ -13528,7 +13429,7 @@
         <v>0.4509063444108774</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>1</v>
       </c>
@@ -13551,7 +13452,7 @@
         <v>0.45055220883534269</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>1</v>
       </c>
@@ -13574,7 +13475,7 @@
         <v>0.45020020020020152</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>1</v>
       </c>
@@ -13597,7 +13498,7 @@
         <v>0.44985029940119897</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>1</v>
       </c>
@@ -13620,7 +13521,7 @@
         <v>0.44950248756219047</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1</v>
       </c>
@@ -13643,7 +13544,7 @@
         <v>0.44915674603174743</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>1</v>
       </c>
@@ -13666,7 +13567,7 @@
         <v>0.44881305637982338</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>1</v>
       </c>
@@ -13689,7 +13590,7 @@
         <v>0.44847140039447875</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>1</v>
       </c>
@@ -13712,7 +13613,7 @@
         <v>0.44813176007866423</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>1</v>
       </c>
@@ -13735,7 +13636,7 @@
         <v>0.44779411764706034</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>1</v>
       </c>
@@ -13758,7 +13659,7 @@
         <v>0.4474584555229732</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>1</v>
       </c>
@@ -13781,7 +13682,7 @@
         <v>0.4471247563352842</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>1</v>
       </c>
@@ -13804,7 +13705,7 @@
         <v>0.44679300291545349</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>1</v>
       </c>
@@ -13827,7 +13728,7 @@
         <v>0.44646317829457521</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>1</v>
       </c>
@@ -13850,7 +13751,7 @@
         <v>0.44613526570048473</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>1</v>
       </c>
@@ -13873,7 +13774,7 @@
         <v>0.44580924855491494</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>1</v>
       </c>
@@ -13896,7 +13797,7 @@
         <v>0.44548511047070294</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>1</v>
       </c>
@@ -13919,7 +13820,7 @@
         <v>0.44516283524904382</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1</v>
       </c>
@@ -13942,7 +13843,7 @@
         <v>0.4457975167144238</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>1</v>
       </c>
@@ -13965,7 +13866,7 @@
         <v>0.44547619047619214</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>1</v>
       </c>
@@ -13988,7 +13889,7 @@
         <v>0.44515669515669687</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>1</v>
       </c>
@@ -14011,7 +13912,7 @@
         <v>0.44483901515151686</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>1</v>
       </c>
@@ -14034,7 +13935,7 @@
         <v>0.4445231350330518</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>1</v>
       </c>
@@ -14057,7 +13958,7 @@
         <v>0.44420903954802438</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>1</v>
       </c>
@@ -14080,7 +13981,7 @@
         <v>0.44389671361502525</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>1</v>
       </c>
@@ -14103,7 +14004,7 @@
         <v>0.4435861423220992</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>1</v>
       </c>
@@ -14126,7 +14027,7 @@
         <v>0.44327731092437156</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>1</v>
       </c>
@@ -14149,7 +14050,7 @@
         <v>0.44390130353817686</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>1</v>
       </c>
@@ -14172,7 +14073,7 @@
         <v>0.44452181987001105</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>1</v>
       </c>
@@ -14195,7 +14096,7 @@
         <v>0.44421296296296475</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>1</v>
       </c>
@@ -14218,7 +14119,7 @@
         <v>0.44482917820868134</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>1</v>
       </c>
@@ -14241,7 +14142,7 @@
         <v>0.44544198895027798</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>1</v>
       </c>
@@ -14264,7 +14165,7 @@
         <v>0.44605142332415232</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>1</v>
       </c>
@@ -14287,7 +14188,7 @@
         <v>0.44665750915751085</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>1</v>
       </c>
@@ -14310,7 +14211,7 @@
         <v>0.44634703196347203</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>1</v>
       </c>
@@ -14333,7 +14234,7 @@
         <v>0.44694899817850803</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>1</v>
       </c>
@@ -14356,7 +14257,7 @@
         <v>0.44754768392370736</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>1</v>
       </c>
@@ -14379,7 +14280,7 @@
         <v>0.44723731884058138</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>1</v>
       </c>
@@ -14402,7 +14303,7 @@
         <v>0.45054200542005579</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>1</v>
       </c>
@@ -14425,7 +14326,7 @@
         <v>0.45202702702702863</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>1</v>
       </c>
@@ -14448,7 +14349,7 @@
         <v>0.45350404312668624</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>1</v>
       </c>
@@ -14471,7 +14372,7 @@
         <v>0.4540770609319012</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>1</v>
       </c>
@@ -14494,7 +14395,7 @@
         <v>0.45554066130473797</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>1</v>
       </c>
@@ -14517,7 +14418,7 @@
         <v>0.45699643493761299</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>0</v>
       </c>
@@ -14540,7 +14441,7 @@
         <v>0.4575555555555571</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>1</v>
       </c>
@@ -14563,7 +14464,7 @@
         <v>0.45899822695035614</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>1</v>
       </c>
@@ -14586,7 +14487,7 @@
         <v>0.45954907161803865</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>1</v>
       </c>
@@ -14609,7 +14510,7 @@
         <v>0.46274250440917253</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>1</v>
       </c>
@@ -14632,7 +14533,7 @@
         <v>0.46591908531222659</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>1</v>
       </c>
@@ -14655,7 +14556,7 @@
         <v>0.4673245614035102</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>1</v>
       </c>
@@ -14678,7 +14579,7 @@
         <v>0.46872265966754301</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>1</v>
       </c>
@@ -14701,7 +14602,7 @@
         <v>0.46924083769633651</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>1</v>
       </c>
@@ -14724,7 +14625,7 @@
         <v>0.47062663185378734</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>1</v>
       </c>
@@ -14747,7 +14648,7 @@
         <v>0.47200520833333476</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>1</v>
       </c>
@@ -14770,7 +14671,7 @@
         <v>0.47251082251082388</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>1</v>
       </c>
@@ -14793,7 +14694,7 @@
         <v>0.47301381692573535</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>1</v>
       </c>
@@ -14816,7 +14717,7 @@
         <v>0.47351421188630621</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1</v>
       </c>
@@ -14839,7 +14740,7 @@
         <v>0.47401202749141025</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1</v>
       </c>
@@ -14862,7 +14763,7 @@
         <v>0.4745072836332489</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>1</v>
       </c>
@@ -14885,7 +14786,7 @@
         <v>0.47500000000000125</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1</v>
       </c>
@@ -14908,7 +14809,7 @@
         <v>0.47634271099744369</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>1</v>
       </c>
@@ -14931,7 +14832,7 @@
         <v>0.47682823129251822</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>1</v>
       </c>
@@ -14954,7 +14855,7 @@
         <v>0.47731128074639645</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>1</v>
       </c>
@@ -14977,7 +14878,7 @@
         <v>0.47779187817259</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>1</v>
       </c>
@@ -15000,7 +14901,7 @@
         <v>0.47827004219409397</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>1</v>
       </c>
@@ -15023,7 +14924,7 @@
         <v>0.47874579124579236</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>1</v>
       </c>
@@ -15046,7 +14947,7 @@
         <v>0.47921914357682727</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1</v>
       </c>
@@ -15069,7 +14970,7 @@
         <v>0.47969011725293237</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1</v>
       </c>
@@ -15092,7 +14993,7 @@
         <v>0.48015873015873117</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>1</v>
       </c>
@@ -15115,7 +15016,7 @@
         <v>0.48062500000000097</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1</v>
       </c>
@@ -15138,7 +15039,7 @@
         <v>0.48108894430590288</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>1</v>
       </c>
@@ -15161,7 +15062,7 @@
         <v>0.48237976782753</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>1</v>
       </c>
@@ -15184,7 +15085,7 @@
         <v>0.4828370554177015</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>1</v>
       </c>
@@ -15207,7 +15108,7 @@
         <v>0.48494224422442339</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>1</v>
       </c>
@@ -15230,7 +15131,7 @@
         <v>0.48786008230452771</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>1</v>
       </c>
@@ -15253,7 +15154,7 @@
         <v>0.48994252873563315</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>1</v>
       </c>
@@ -15276,7 +15177,7 @@
         <v>0.49201474201474299</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>1</v>
       </c>
@@ -15299,7 +15200,7 @@
         <v>0.49244281045751731</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>1</v>
       </c>
@@ -15322,7 +15223,7 @@
         <v>0.49286878565607267</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>1</v>
       </c>
@@ -15345,7 +15246,7 @@
         <v>0.49329268292683015</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>1</v>
       </c>
@@ -15368,7 +15269,7 @@
         <v>0.49371451743714606</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1</v>
       </c>
@@ -15391,7 +15292,7 @@
         <v>0.49575242718446694</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>1</v>
       </c>
@@ -15414,7 +15315,7 @@
         <v>0.49778046811945209</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>1</v>
       </c>
@@ -15437,7 +15338,7 @@
         <v>0.49979871175523444</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1</v>
       </c>
@@ -15460,7 +15361,7 @@
         <v>0.50180722891566365</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>1</v>
       </c>
@@ -15483,7 +15384,7 @@
         <v>0.50380608974359076</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>1</v>
       </c>
@@ -15506,7 +15407,7 @@
         <v>0.50579536370903377</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1</v>
       </c>
@@ -15529,7 +15430,7 @@
         <v>0.50777511961722588</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>1</v>
       </c>
@@ -15552,7 +15453,7 @@
         <v>0.50815433571996915</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1</v>
       </c>
@@ -15575,7 +15476,7 @@
         <v>0.508531746031747</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>1</v>
       </c>
@@ -15598,7 +15499,7 @@
         <v>0.50890736342042853</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>1</v>
       </c>
@@ -15621,7 +15522,7 @@
         <v>0.5092812006319124</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>1</v>
       </c>
@@ -15644,7 +15545,7 @@
         <v>0.50965327029156904</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>1</v>
       </c>
@@ -15667,7 +15568,7 @@
         <v>0.51159591194968645</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>1</v>
       </c>
@@ -15690,7 +15591,7 @@
         <v>0.51352941176470679</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>1</v>
       </c>
@@ -15713,7 +15614,7 @@
         <v>0.51545383411580692</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>1</v>
       </c>
@@ -15736,7 +15637,7 @@
         <v>0.51580796252927497</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>1</v>
       </c>
@@ -15759,7 +15660,7 @@
         <v>0.51771806853582647</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>1</v>
       </c>
@@ -15782,7 +15683,7 @@
         <v>0.51806526806526898</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>1</v>
       </c>
@@ -15805,7 +15706,7 @@
         <v>0.51763565891472962</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>1</v>
       </c>
@@ -15828,7 +15729,7 @@
         <v>0.51720804331013248</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>1</v>
       </c>
@@ -15851,7 +15752,7 @@
         <v>0.51678240740740844</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>1</v>
       </c>
@@ -15874,7 +15775,7 @@
         <v>0.51866820631254917</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>1</v>
       </c>
@@ -15897,7 +15798,7 @@
         <v>0.52054531490015465</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>1</v>
       </c>
@@ -15920,7 +15821,7 @@
         <v>0.52241379310344938</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>1</v>
       </c>
@@ -15943,7 +15844,7 @@
         <v>0.52198012232416013</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>1</v>
       </c>
@@ -15966,7 +15867,7 @@
         <v>0.52154843630816283</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>1</v>
       </c>
@@ -15989,7 +15890,7 @@
         <v>0.52187975646879858</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>1</v>
       </c>
@@ -16012,7 +15913,7 @@
         <v>0.52372817008352424</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>1</v>
       </c>
@@ -16035,7 +15936,7 @@
         <v>0.52405303030303141</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>1</v>
       </c>
@@ -16058,7 +15959,7 @@
         <v>0.5243764172335611</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>1</v>
       </c>
@@ -16081,7 +15982,7 @@
         <v>0.52469834087481249</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>1</v>
       </c>
@@ -16104,7 +16005,7 @@
         <v>0.5265237020316037</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>1</v>
       </c>
@@ -16127,7 +16028,7 @@
         <v>0.52834084084084187</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>1</v>
       </c>
@@ -16150,7 +16051,7 @@
         <v>0.52790262172284752</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>1</v>
       </c>
@@ -16173,7 +16074,7 @@
         <v>0.52970852017937331</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>1</v>
       </c>
@@ -16196,7 +16097,7 @@
         <v>0.53001491424310321</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>1</v>
       </c>
@@ -16219,7 +16120,7 @@
         <v>0.53180803571428681</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>1</v>
       </c>
@@ -16242,7 +16143,7 @@
         <v>0.53359317000742501</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>1</v>
       </c>
@@ -16265,7 +16166,7 @@
         <v>0.53388888888888997</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>1</v>
       </c>
@@ -16288,7 +16189,7 @@
         <v>0.53418329637841933</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>1</v>
       </c>
@@ -16311,7 +16212,7 @@
         <v>0.534476401179942</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>1</v>
       </c>
@@ -16334,7 +16235,7 @@
         <v>0.53476821192053081</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>1</v>
       </c>
@@ -16357,7 +16258,7 @@
         <v>0.53505873715124919</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>1</v>
       </c>
@@ -16380,7 +16281,7 @@
         <v>0.53681318681318779</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>1</v>
       </c>
@@ -16403,7 +16304,7 @@
         <v>0.53709795321637521</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>0</v>
       </c>
@@ -16426,7 +16327,7 @@
         <v>0.53811086797957797</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>1</v>
       </c>
@@ -16449,7 +16350,7 @@
         <v>0.53839155749636192</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>1</v>
       </c>
@@ -16472,7 +16373,7 @@
         <v>0.54012345679012441</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>1</v>
       </c>
@@ -16495,7 +16396,7 @@
         <v>0.54184782608695747</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>1</v>
       </c>
@@ -16518,7 +16419,7 @@
         <v>0.54356471438901044</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>1</v>
       </c>
@@ -16541,7 +16442,7 @@
         <v>0.54527417027417135</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>1</v>
       </c>
@@ -16564,7 +16465,7 @@
         <v>0.54553635709143367</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>1</v>
       </c>
@@ -16587,7 +16488,7 @@
         <v>0.54579741379310442</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>1</v>
       </c>
@@ -16610,7 +16511,7 @@
         <v>0.54749103942652433</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>1</v>
       </c>
@@ -16633,7 +16534,7 @@
         <v>0.54774678111588082</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>1</v>
       </c>
@@ -16656,7 +16557,7 @@
         <v>0.54942897930050061</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>1</v>
       </c>
@@ -16679,7 +16580,7 @@
         <v>0.55110398860398946</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>1</v>
       </c>
@@ -16702,7 +16603,7 @@
         <v>0.55277185501066184</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>1</v>
       </c>
@@ -16725,7 +16626,7 @@
         <v>0.55443262411347594</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>1</v>
       </c>
@@ -16748,7 +16649,7 @@
         <v>0.556086341118189</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>0</v>
       </c>
@@ -16771,7 +16672,7 @@
         <v>0.55702683615819282</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>1</v>
       </c>
@@ -16794,7 +16695,7 @@
         <v>0.55866807610993729</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1</v>
       </c>
@@ -16817,7 +16718,7 @@
         <v>0.55889592123769416</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>1</v>
       </c>
@@ -16840,7 +16741,7 @@
         <v>0.56052631578947443</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>1</v>
       </c>
@@ -16863,7 +16764,7 @@
         <v>0.56214985994397826</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>1</v>
       </c>
@@ -16886,7 +16787,7 @@
         <v>0.56236897274633191</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>1</v>
       </c>
@@ -16909,7 +16810,7 @@
         <v>0.56398186889818758</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>1</v>
       </c>
@@ -16932,7 +16833,7 @@
         <v>0.56419624217119069</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>1</v>
       </c>
@@ -16955,7 +16856,7 @@
         <v>0.56510416666666741</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>1</v>
       </c>
@@ -16978,7 +16879,7 @@
         <v>0.5667013167013174</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>1</v>
       </c>
@@ -17001,7 +16902,7 @@
         <v>0.56829183955740037</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>1</v>
       </c>
@@ -17024,7 +16925,7 @@
         <v>0.56987577639751608</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>1</v>
       </c>
@@ -17047,7 +16948,7 @@
         <v>0.57145316804407764</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>1</v>
       </c>
@@ -17070,7 +16971,7 @@
         <v>0.57302405498281839</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>1</v>
       </c>
@@ -17093,7 +16994,7 @@
         <v>0.57321673525377281</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>1</v>
       </c>
@@ -17116,7 +17017,7 @@
         <v>0.57477754962354599</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>1</v>
       </c>
@@ -17139,7 +17040,7 @@
         <v>0.57564890710382566</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>1</v>
       </c>
@@ -17162,7 +17063,7 @@
         <v>0.57719836400818048</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>1</v>
       </c>
@@ -17185,7 +17086,7 @@
         <v>0.57738095238095288</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>1</v>
       </c>
@@ -17208,7 +17109,7 @@
         <v>0.57892057026476629</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>1</v>
       </c>
@@ -17231,7 +17132,7 @@
         <v>0.57842140921409257</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8">
       <c r="B494">
         <v>3</v>
       </c>
@@ -17251,7 +17152,7 @@
         <v>0.58029073698444933</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8">
       <c r="B495">
         <v>3</v>
       </c>
@@ -17271,7 +17172,7 @@
         <v>0.58215249662618129</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8">
       <c r="B496">
         <v>3</v>
       </c>
@@ -17291,7 +17192,7 @@
         <v>0.58400673400673442</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:8">
       <c r="B497">
         <v>1</v>
       </c>
@@ -17311,7 +17212,7 @@
         <v>0.58383736559139832</v>
       </c>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:8">
       <c r="B498">
         <v>1</v>
       </c>
@@ -17331,7 +17232,7 @@
         <v>0.58366867873910167</v>
       </c>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:8">
       <c r="B499">
         <v>3</v>
       </c>
@@ -17351,7 +17252,7 @@
         <v>0.58550870147255729</v>
       </c>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:8">
       <c r="B500">
         <v>3</v>
       </c>
